--- a/data/original/Aggregation/2018/aggregation_2018-03-01.xlsx
+++ b/data/original/Aggregation/2018/aggregation_2018-03-01.xlsx
@@ -8,30 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levkupybida/Documents/GitHub/MonetaryPolicyEffectOnNetInterestMargins/data/original/Aggregation/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7484D9-49DE-FB45-9C27-81DB056F3A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC0B1E4-F559-204F-B8B6-CD25A92A334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="11720" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="24080" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Активи" sheetId="8" r:id="rId1"/>
-    <sheet name="Зобов'язання" sheetId="3" r:id="rId2"/>
-    <sheet name="Капітал" sheetId="4" r:id="rId3"/>
-    <sheet name="Фінрез" sheetId="5" r:id="rId4"/>
-    <sheet name="Активи_НВ" sheetId="6" r:id="rId5"/>
-    <sheet name="Зобов'язання_НВ" sheetId="7" r:id="rId6"/>
-    <sheet name="Mozart Reports" sheetId="2" state="veryHidden" r:id="rId7"/>
+    <sheet name="Money" sheetId="10" r:id="rId2"/>
+    <sheet name="Зобов'язання" sheetId="3" r:id="rId3"/>
+    <sheet name="Капітал" sheetId="4" r:id="rId4"/>
+    <sheet name="Фінрез" sheetId="5" r:id="rId5"/>
+    <sheet name="Активи_НВ" sheetId="6" r:id="rId6"/>
+    <sheet name="Зобов'язання_НВ" sheetId="7" r:id="rId7"/>
+    <sheet name="Mozart Reports" sheetId="2" state="veryHidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Активи!$A:$B</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">Активи_НВ!$A:$B</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">Фінрез!$A:$B</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Активи!$A:$C</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">Активи_НВ!$A:$B</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">Фінрез!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="283">
   <si>
     <t>Грошові кошти та їх еквіваленти</t>
   </si>
@@ -882,6 +896,9 @@
 постанови Правління НБУ від 11.09.2017 № 89 (зі змінами) та впровадження МСФЗ 9 з урахуванням постанови Правління НБУ  від 12.01.2018 № 1 
 «Про окремі питання, пов’язані із запровадженням Міжнародного стандарту фінансової звітності 9 «Фінансові інструменти»». </t>
   </si>
+  <si>
+    <t>Банк</t>
+  </si>
 </sst>
 </file>
 
@@ -890,7 +907,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -963,6 +980,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1294,14 +1317,12 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1639,14 +1660,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="17" width="12.6640625" customWidth="1"/>
     <col min="18" max="19" width="14.6640625" customWidth="1"/>
     <col min="20" max="24" width="13.6640625" customWidth="1"/>
@@ -1655,13 +1675,17 @@
     <col min="33" max="33" width="12.6640625" customWidth="1"/>
     <col min="34" max="34" width="14.6640625" customWidth="1"/>
     <col min="35" max="35" width="12.6640625" customWidth="1"/>
+    <col min="36" max="36" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="2"/>
       <c r="F1" s="4"/>
       <c r="G1" s="2"/>
       <c r="K1" s="4"/>
@@ -1674,7 +1698,6 @@
       <c r="AA1" s="2"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="2"/>
-      <c r="AJ1" s="4"/>
       <c r="AK1" s="2"/>
       <c r="AO1" s="4"/>
       <c r="AP1" s="2"/>
@@ -8214,9 +8237,10 @@
       <c r="XEW1" s="2"/>
       <c r="XFA1" s="4"/>
     </row>
-    <row r="2" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
       <c r="K2" s="4"/>
@@ -8229,7 +8253,6 @@
       <c r="AA2" s="2"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="2"/>
-      <c r="AJ2" s="4"/>
       <c r="AK2" s="2"/>
       <c r="AO2" s="4"/>
       <c r="AP2" s="2"/>
@@ -14769,22 +14792,21 @@
       <c r="XEW2" s="2"/>
       <c r="XFA2" s="4"/>
     </row>
-    <row r="3" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="AI3" s="13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="6">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6">
         <v>43160</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>258</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
@@ -14819,15 +14841,15 @@
       <c r="AH4" s="65"/>
       <c r="AI4" s="66"/>
     </row>
-    <row r="5" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="11" customFormat="1" ht="195" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>282</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>1</v>
@@ -14925,16 +14947,19 @@
       <c r="AI5" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="6" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="11" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="AJ5" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" s="11" customFormat="1" ht="17.5" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="62">
         <v>2</v>
-      </c>
-      <c r="C6" s="15">
-        <v>3</v>
       </c>
       <c r="D6" s="15">
         <v>4</v>
@@ -15032,16 +15057,19 @@
       <c r="AI6" s="15">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="17.5" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="41">
-        <v>8117759.7105299998</v>
       </c>
       <c r="D7" s="41">
         <v>1349413.66237</v>
@@ -15139,16 +15167,19 @@
       <c r="AI7" s="41">
         <v>58878999.204899997</v>
       </c>
-    </row>
-    <row r="8" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ7" s="41">
+        <v>8117759.7105299998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14">
       <c r="A8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="41">
-        <v>518002.43115999998</v>
       </c>
       <c r="D8" s="41">
         <v>171056.65359999999</v>
@@ -15246,16 +15277,19 @@
       <c r="AI8" s="41">
         <v>112500</v>
       </c>
-    </row>
-    <row r="9" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ8" s="41">
+        <v>518002.43115999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14">
       <c r="A9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="41">
-        <v>2258581.7597099999</v>
       </c>
       <c r="D9" s="41">
         <v>1383898.5737000001</v>
@@ -15353,16 +15387,19 @@
       <c r="AI9" s="41">
         <v>380774.59</v>
       </c>
-    </row>
-    <row r="10" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ9" s="41">
+        <v>2258581.7597099999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14">
       <c r="A10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="41">
-        <v>14770008.790270001</v>
       </c>
       <c r="D10" s="41">
         <v>4550173.0902000004</v>
@@ -15460,16 +15497,19 @@
       <c r="AI10" s="41">
         <v>94270719.350639999</v>
       </c>
-    </row>
-    <row r="11" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ10" s="41">
+        <v>14770008.790270001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14">
       <c r="A11" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="41">
-        <v>189273.26203000001</v>
       </c>
       <c r="D11" s="41">
         <v>72457.238490000003</v>
@@ -15567,16 +15607,19 @@
       <c r="AI11" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ11" s="41">
+        <v>189273.26203000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14">
       <c r="A12" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="41">
-        <v>8022246.10769</v>
       </c>
       <c r="D12" s="41">
         <v>4658946.6839500004</v>
@@ -15674,16 +15717,19 @@
       <c r="AI12" s="41">
         <v>6784253.0516100004</v>
       </c>
-    </row>
-    <row r="13" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ12" s="41">
+        <v>8022246.10769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14">
       <c r="A13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="41">
-        <v>1265000.3433000001</v>
       </c>
       <c r="D13" s="41">
         <v>807818.26405999996</v>
@@ -15781,16 +15827,19 @@
       <c r="AI13" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ13" s="41">
+        <v>1265000.3433000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14">
       <c r="A14" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="41">
-        <v>38130.254910000003</v>
       </c>
       <c r="D14" s="41">
         <v>7281.1303399999997</v>
@@ -15888,16 +15937,19 @@
       <c r="AI14" s="41">
         <v>48674.092499999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ14" s="41">
+        <v>38130.254910000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14">
       <c r="A15" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="41">
-        <v>20478856.330940001</v>
       </c>
       <c r="D15" s="41">
         <v>12367039.107480001</v>
@@ -15995,16 +16047,19 @@
       <c r="AI15" s="41">
         <v>139218166.28795999</v>
       </c>
-    </row>
-    <row r="16" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ15" s="41">
+        <v>20478856.330940001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1022 1026:2047 2051:3072 3076:5117 5121:6142 6146:7167 7171:8192 8196:10237 10241:11262 11266:12287 12291:13312 13316:15357 15361:16381" ht="14">
       <c r="A16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="41">
-        <v>70638.683969999998</v>
       </c>
       <c r="D16" s="41">
         <v>48634.77764</v>
@@ -16102,16 +16157,19 @@
       <c r="AI16" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ16" s="41">
+        <v>70638.683969999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="14">
       <c r="A17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="41">
-        <v>1101254.8222699999</v>
       </c>
       <c r="D17" s="41">
         <v>317796.81320999999</v>
@@ -16209,16 +16267,19 @@
       <c r="AI17" s="41">
         <v>495599.35580000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ17" s="41">
+        <v>1101254.8222699999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" ht="14">
       <c r="A18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="41">
-        <v>17814.032200000001</v>
       </c>
       <c r="D18" s="41">
         <v>3189.0464999999999</v>
@@ -16316,16 +16377,19 @@
       <c r="AI18" s="41">
         <v>78896.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ18" s="41">
+        <v>17814.032200000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="14">
       <c r="A19" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="41">
-        <v>1158850.69936</v>
       </c>
       <c r="D19" s="41">
         <v>646136.32924999995</v>
@@ -16423,16 +16487,19 @@
       <c r="AI19" s="41">
         <v>2121644.5620800001</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ19" s="41">
+        <v>1158850.69936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="14">
       <c r="A20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="41">
-        <v>134943.78404</v>
       </c>
       <c r="D20" s="41">
         <v>69830.155750000005</v>
@@ -16530,16 +16597,19 @@
       <c r="AI20" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ20" s="41">
+        <v>134943.78404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="14">
       <c r="A21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="41">
-        <v>40281.04952</v>
       </c>
       <c r="D21" s="41">
         <v>25088.763449999999</v>
@@ -16637,16 +16707,19 @@
       <c r="AI21" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ21" s="41">
+        <v>40281.04952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="14">
       <c r="A22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="41">
-        <v>213731.51301</v>
       </c>
       <c r="D22" s="41">
         <v>48675.72552</v>
@@ -16744,16 +16817,19 @@
       <c r="AI22" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ22" s="41">
+        <v>213731.51301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="14">
       <c r="A23" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" s="41">
-        <v>199633.97003999999</v>
       </c>
       <c r="D23" s="41">
         <v>113798.94083000001</v>
@@ -16851,16 +16927,19 @@
       <c r="AI23" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ23" s="41">
+        <v>199633.97003999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="14">
       <c r="A24" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="C24" s="41">
-        <v>394125.04255999997</v>
       </c>
       <c r="D24" s="41">
         <v>294948.80682</v>
@@ -16958,16 +17037,19 @@
       <c r="AI24" s="41">
         <v>106444.9145</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ24" s="41">
+        <v>394125.04255999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="14">
       <c r="A25" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" s="41">
-        <v>412250.27708000003</v>
       </c>
       <c r="D25" s="41">
         <v>215823.21906</v>
@@ -17065,16 +17147,19 @@
       <c r="AI25" s="41">
         <v>901252.73861999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ25" s="41">
+        <v>412250.27708000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="14">
       <c r="A26" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" s="41">
-        <v>2387268.1715299999</v>
       </c>
       <c r="D26" s="41">
         <v>1084909.3648099999</v>
@@ -17172,16 +17257,19 @@
       <c r="AI26" s="41">
         <v>636690.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ26" s="41">
+        <v>2387268.1715299999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="14">
       <c r="A27" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="40" t="s">
         <v>70</v>
-      </c>
-      <c r="C27" s="41">
-        <v>139353.42992</v>
       </c>
       <c r="D27" s="41">
         <v>82603.754060000007</v>
@@ -17279,16 +17367,19 @@
       <c r="AI27" s="41">
         <v>126948.185</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ27" s="41">
+        <v>139353.42992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="14">
       <c r="A28" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>72</v>
-      </c>
-      <c r="C28" s="41">
-        <v>2344426.1651099999</v>
       </c>
       <c r="D28" s="41">
         <v>1064469.11207</v>
@@ -17386,16 +17477,19 @@
       <c r="AI28" s="41">
         <v>7573689.6158999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ28" s="41">
+        <v>2344426.1651099999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="14">
       <c r="A29" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="41">
-        <v>76537.757670000006</v>
       </c>
       <c r="D29" s="41">
         <v>45105.056490000003</v>
@@ -17493,16 +17587,19 @@
       <c r="AI29" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ29" s="41">
+        <v>76537.757670000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" ht="14">
       <c r="A30" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" s="41">
-        <v>482145.40665999998</v>
       </c>
       <c r="D30" s="41">
         <v>201892.59979000001</v>
@@ -17600,16 +17697,19 @@
       <c r="AI30" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ30" s="41">
+        <v>482145.40665999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" ht="14">
       <c r="A31" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>78</v>
-      </c>
-      <c r="C31" s="41">
-        <v>16671.613420000001</v>
       </c>
       <c r="D31" s="41">
         <v>7696.0861800000002</v>
@@ -17707,16 +17807,19 @@
       <c r="AI31" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ31" s="41">
+        <v>16671.613420000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" ht="14">
       <c r="A32" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" s="41">
-        <v>36892.777220000004</v>
       </c>
       <c r="D32" s="41">
         <v>24643.277480000001</v>
@@ -17814,16 +17917,19 @@
       <c r="AI32" s="41">
         <v>125993.185</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ32" s="41">
+        <v>36892.777220000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" ht="14">
       <c r="A33" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" s="41">
-        <v>89794.626529999994</v>
       </c>
       <c r="D33" s="41">
         <v>36241.012999999999</v>
@@ -17921,16 +18027,19 @@
       <c r="AI33" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ33" s="41">
+        <v>89794.626529999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="14">
       <c r="A34" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="41">
-        <v>4954928.8132100003</v>
       </c>
       <c r="D34" s="41">
         <v>2550030.5100500002</v>
@@ -18028,16 +18137,19 @@
       <c r="AI34" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ34" s="41">
+        <v>4954928.8132100003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" ht="14">
       <c r="A35" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" s="41">
-        <v>169655.00698000001</v>
       </c>
       <c r="D35" s="41">
         <v>67640.575580000004</v>
@@ -18135,16 +18247,19 @@
       <c r="AI35" s="41">
         <v>192032.76631000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ35" s="41">
+        <v>169655.00698000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" ht="14">
       <c r="A36" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" s="41">
-        <v>174542.52421</v>
       </c>
       <c r="D36" s="41">
         <v>136612.78148999999</v>
@@ -18242,16 +18357,19 @@
       <c r="AI36" s="41">
         <v>808</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ36" s="41">
+        <v>174542.52421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="14">
       <c r="A37" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" s="41">
-        <v>31061.49697</v>
       </c>
       <c r="D37" s="41">
         <v>21731.497500000001</v>
@@ -18349,16 +18467,19 @@
       <c r="AI37" s="41">
         <v>30370.604500000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ37" s="41">
+        <v>31061.49697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" ht="14">
       <c r="A38" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="41">
-        <v>1098440.1043100001</v>
       </c>
       <c r="D38" s="41">
         <v>242665.25042</v>
@@ -18456,16 +18577,19 @@
       <c r="AI38" s="41">
         <v>930000</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ38" s="41">
+        <v>1098440.1043100001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" ht="14">
       <c r="A39" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" s="41">
-        <v>2915470.0783299999</v>
       </c>
       <c r="D39" s="41">
         <v>700087.63335000002</v>
@@ -18563,16 +18687,19 @@
       <c r="AI39" s="41">
         <v>935032</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ39" s="41">
+        <v>2915470.0783299999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" ht="14">
       <c r="A40" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="C40" s="41">
-        <v>156284.43267000001</v>
       </c>
       <c r="D40" s="41">
         <v>84834.605290000007</v>
@@ -18670,16 +18797,19 @@
       <c r="AI40" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ40" s="41">
+        <v>156284.43267000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="14">
       <c r="A41" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="40" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" s="41">
-        <v>52625.184630000003</v>
       </c>
       <c r="D41" s="41">
         <v>28097.976849999999</v>
@@ -18777,16 +18907,19 @@
       <c r="AI41" s="41">
         <v>126477</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ41" s="41">
+        <v>52625.184630000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" ht="14">
       <c r="A42" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="C42" s="41">
-        <v>44944.986510000002</v>
       </c>
       <c r="D42" s="41">
         <v>15179.02513</v>
@@ -18884,16 +19017,19 @@
       <c r="AI42" s="41">
         <v>192430.55499999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ42" s="41">
+        <v>44944.986510000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" ht="14">
       <c r="A43" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="C43" s="41">
-        <v>171712.43768999999</v>
       </c>
       <c r="D43" s="41">
         <v>59259.648990000002</v>
@@ -18991,16 +19127,19 @@
       <c r="AI43" s="41">
         <v>10000</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ43" s="41">
+        <v>171712.43768999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" ht="14">
       <c r="A44" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>104</v>
-      </c>
-      <c r="C44" s="41">
-        <v>79168.421239999996</v>
       </c>
       <c r="D44" s="41">
         <v>41787.375639999998</v>
@@ -19098,16 +19237,19 @@
       <c r="AI44" s="41">
         <v>59824.970699999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ44" s="41">
+        <v>79168.421239999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" ht="14">
       <c r="A45" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="40" t="s">
         <v>106</v>
-      </c>
-      <c r="C45" s="41">
-        <v>81515.303700000004</v>
       </c>
       <c r="D45" s="41">
         <v>45626.264109999996</v>
@@ -19205,16 +19347,19 @@
       <c r="AI45" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ45" s="41">
+        <v>81515.303700000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" ht="14">
       <c r="A46" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="40" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" s="41">
-        <v>454408.14582999999</v>
       </c>
       <c r="D46" s="41">
         <v>177504.95082999999</v>
@@ -19312,16 +19457,19 @@
       <c r="AI46" s="41">
         <v>530000</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ46" s="41">
+        <v>454408.14582999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" ht="14">
       <c r="A47" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>110</v>
-      </c>
-      <c r="C47" s="41">
-        <v>14534.508449999999</v>
       </c>
       <c r="D47" s="41">
         <v>4160.43995</v>
@@ -19419,16 +19567,19 @@
       <c r="AI47" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ47" s="41">
+        <v>14534.508449999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" ht="14">
       <c r="A48" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" s="41">
-        <v>246721.89694000001</v>
       </c>
       <c r="D48" s="41">
         <v>103206.42378</v>
@@ -19526,16 +19677,19 @@
       <c r="AI48" s="41">
         <v>205725.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ48" s="41">
+        <v>246721.89694000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" ht="14">
       <c r="A49" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="40" t="s">
         <v>114</v>
-      </c>
-      <c r="C49" s="41">
-        <v>374339.43453999999</v>
       </c>
       <c r="D49" s="41">
         <v>184791.2071</v>
@@ -19633,16 +19787,19 @@
       <c r="AI49" s="41">
         <v>269212.36814999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ49" s="41">
+        <v>374339.43453999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" ht="14">
       <c r="A50" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>116</v>
-      </c>
-      <c r="C50" s="41">
-        <v>2643563.8433500002</v>
       </c>
       <c r="D50" s="41">
         <v>636932.86933000002</v>
@@ -19740,16 +19897,19 @@
       <c r="AI50" s="41">
         <v>3298788.31189</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ50" s="41">
+        <v>2643563.8433500002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" ht="14">
       <c r="A51" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="40" t="s">
         <v>118</v>
-      </c>
-      <c r="C51" s="41">
-        <v>6485365.5893700002</v>
       </c>
       <c r="D51" s="41">
         <v>1587934.65588</v>
@@ -19847,16 +20007,19 @@
       <c r="AI51" s="41">
         <v>17624875.30525</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ51" s="41">
+        <v>6485365.5893700002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" ht="14">
       <c r="A52" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="40" t="s">
         <v>120</v>
-      </c>
-      <c r="C52" s="41">
-        <v>106365.38179</v>
       </c>
       <c r="D52" s="41">
         <v>63685.416420000001</v>
@@ -19954,16 +20117,19 @@
       <c r="AI52" s="41">
         <v>129351.288</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ52" s="41">
+        <v>106365.38179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" ht="14">
       <c r="A53" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="C53" s="41">
-        <v>155650.41091000001</v>
       </c>
       <c r="D53" s="41">
         <v>43233.455670000003</v>
@@ -20061,16 +20227,19 @@
       <c r="AI53" s="41">
         <v>114318.64750000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ53" s="41">
+        <v>155650.41091000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" ht="14">
       <c r="A54" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="40" t="s">
         <v>124</v>
-      </c>
-      <c r="C54" s="41">
-        <v>71808.46931</v>
       </c>
       <c r="D54" s="41">
         <v>46566.926390000001</v>
@@ -20168,16 +20337,19 @@
       <c r="AI54" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ54" s="41">
+        <v>71808.46931</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" ht="14">
       <c r="A55" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="40" t="s">
         <v>126</v>
-      </c>
-      <c r="C55" s="41">
-        <v>466523.25825999997</v>
       </c>
       <c r="D55" s="41">
         <v>31829.864979999998</v>
@@ -20275,16 +20447,19 @@
       <c r="AI55" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ55" s="41">
+        <v>466523.25825999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" ht="14">
       <c r="A56" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="40" t="s">
         <v>128</v>
-      </c>
-      <c r="C56" s="41">
-        <v>3091266.03999</v>
       </c>
       <c r="D56" s="41">
         <v>824128.14700999996</v>
@@ -20382,16 +20557,19 @@
       <c r="AI56" s="41">
         <v>1252840.9958200001</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ56" s="41">
+        <v>3091266.03999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" ht="14">
       <c r="A57" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="40" t="s">
         <v>130</v>
-      </c>
-      <c r="C57" s="41">
-        <v>1015289.21461</v>
       </c>
       <c r="D57" s="41">
         <v>15131.023660000001</v>
@@ -20489,16 +20667,19 @@
       <c r="AI57" s="41">
         <v>3286883</v>
       </c>
-    </row>
-    <row r="58" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ57" s="41">
+        <v>1015289.21461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" ht="14">
       <c r="A58" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="40" t="s">
         <v>132</v>
-      </c>
-      <c r="C58" s="41">
-        <v>821381.89216000005</v>
       </c>
       <c r="D58" s="41">
         <v>215802.63823000001</v>
@@ -20596,16 +20777,19 @@
       <c r="AI58" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ58" s="41">
+        <v>821381.89216000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" ht="14">
       <c r="A59" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="C59" s="41">
-        <v>1888441.6776000001</v>
       </c>
       <c r="D59" s="41">
         <v>698838.37583000003</v>
@@ -20703,16 +20887,19 @@
       <c r="AI59" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ59" s="41">
+        <v>1888441.6776000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" ht="14">
       <c r="A60" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="40" t="s">
         <v>136</v>
-      </c>
-      <c r="C60" s="41">
-        <v>1108429.0722699999</v>
       </c>
       <c r="D60" s="41">
         <v>683422.14356999996</v>
@@ -20810,16 +20997,19 @@
       <c r="AI60" s="41">
         <v>27088.584999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ60" s="41">
+        <v>1108429.0722699999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" ht="14">
       <c r="A61" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="40" t="s">
         <v>138</v>
-      </c>
-      <c r="C61" s="41">
-        <v>16365.11823</v>
       </c>
       <c r="D61" s="41">
         <v>11815.688759999999</v>
@@ -20917,16 +21107,19 @@
       <c r="AI61" s="41">
         <v>1000.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ61" s="41">
+        <v>16365.11823</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" ht="14">
       <c r="A62" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="40" t="s">
         <v>140</v>
-      </c>
-      <c r="C62" s="41">
-        <v>1889.6328000000001</v>
       </c>
       <c r="D62" s="41">
         <v>1197.81158</v>
@@ -21024,16 +21217,19 @@
       <c r="AI62" s="41">
         <v>124420</v>
       </c>
-    </row>
-    <row r="63" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ62" s="41">
+        <v>1889.6328000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" ht="14">
       <c r="A63" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="40" t="s">
         <v>142</v>
-      </c>
-      <c r="C63" s="41">
-        <v>147122.36804999999</v>
       </c>
       <c r="D63" s="41">
         <v>2100.1563099999998</v>
@@ -21131,16 +21327,19 @@
       <c r="AI63" s="41">
         <v>2171909</v>
       </c>
-    </row>
-    <row r="64" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ63" s="41">
+        <v>147122.36804999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" ht="14">
       <c r="A64" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="40" t="s">
         <v>144</v>
-      </c>
-      <c r="C64" s="41">
-        <v>410397.16131</v>
       </c>
       <c r="D64" s="41">
         <v>205067.46205999999</v>
@@ -21238,16 +21437,19 @@
       <c r="AI64" s="41">
         <v>75000</v>
       </c>
-    </row>
-    <row r="65" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ64" s="41">
+        <v>410397.16131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" ht="14">
       <c r="A65" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="40" t="s">
         <v>146</v>
-      </c>
-      <c r="C65" s="41">
-        <v>60566.828650000003</v>
       </c>
       <c r="D65" s="41">
         <v>56007.577299999997</v>
@@ -21345,16 +21547,19 @@
       <c r="AI65" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ65" s="41">
+        <v>60566.828650000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" ht="14">
       <c r="A66" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="40" t="s">
         <v>148</v>
-      </c>
-      <c r="C66" s="41">
-        <v>90140.131640000007</v>
       </c>
       <c r="D66" s="41">
         <v>37350.547010000002</v>
@@ -21452,16 +21657,19 @@
       <c r="AI66" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ66" s="41">
+        <v>90140.131640000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" ht="14">
       <c r="A67" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="40" t="s">
         <v>150</v>
-      </c>
-      <c r="C67" s="41">
-        <v>60642.79952</v>
       </c>
       <c r="D67" s="41">
         <v>31512.312819999999</v>
@@ -21559,16 +21767,19 @@
       <c r="AI67" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ67" s="41">
+        <v>60642.79952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" ht="14">
       <c r="A68" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="40" t="s">
         <v>152</v>
-      </c>
-      <c r="C68" s="41">
-        <v>18473.230940000001</v>
       </c>
       <c r="D68" s="41">
         <v>4370.5481399999999</v>
@@ -21666,16 +21877,19 @@
       <c r="AI68" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ68" s="41">
+        <v>18473.230940000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" ht="14">
       <c r="A69" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="40" t="s">
         <v>154</v>
-      </c>
-      <c r="C69" s="41">
-        <v>64439.339500000002</v>
       </c>
       <c r="D69" s="41">
         <v>13036.196610000001</v>
@@ -21773,16 +21987,19 @@
       <c r="AI69" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ69" s="41">
+        <v>64439.339500000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" ht="18" customHeight="1">
       <c r="A70" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="40" t="s">
         <v>156</v>
-      </c>
-      <c r="C70" s="41">
-        <v>145165.39845000001</v>
       </c>
       <c r="D70" s="41">
         <v>117241.77959000001</v>
@@ -21880,16 +22097,19 @@
       <c r="AI70" s="41">
         <v>55000</v>
       </c>
-    </row>
-    <row r="71" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ70" s="41">
+        <v>145165.39845000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" ht="14">
       <c r="A71" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="40" t="s">
         <v>158</v>
-      </c>
-      <c r="C71" s="41">
-        <v>118871.40734999999</v>
       </c>
       <c r="D71" s="41">
         <v>59557.359830000001</v>
@@ -21987,16 +22207,19 @@
       <c r="AI71" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ71" s="41">
+        <v>118871.40734999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" ht="14">
       <c r="A72" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="40" t="s">
         <v>160</v>
-      </c>
-      <c r="C72" s="41">
-        <v>118162.0095</v>
       </c>
       <c r="D72" s="41">
         <v>44152.915609999996</v>
@@ -22094,16 +22317,19 @@
       <c r="AI72" s="41">
         <v>307200.64019000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ72" s="41">
+        <v>118162.0095</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" ht="14">
       <c r="A73" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="40" t="s">
         <v>162</v>
-      </c>
-      <c r="C73" s="41">
-        <v>20085.650750000001</v>
       </c>
       <c r="D73" s="41">
         <v>5315.0438400000003</v>
@@ -22201,16 +22427,19 @@
       <c r="AI73" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ73" s="41">
+        <v>20085.650750000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" ht="14">
       <c r="A74" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="40" t="s">
         <v>164</v>
-      </c>
-      <c r="C74" s="41">
-        <v>358745.09908999997</v>
       </c>
       <c r="D74" s="41">
         <v>116984.77155999999</v>
@@ -22308,16 +22537,19 @@
       <c r="AI74" s="41">
         <v>1417875.6462900001</v>
       </c>
-    </row>
-    <row r="75" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ74" s="41">
+        <v>358745.09908999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" ht="14">
       <c r="A75" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="40" t="s">
         <v>166</v>
-      </c>
-      <c r="C75" s="41">
-        <v>207102.02155</v>
       </c>
       <c r="D75" s="41">
         <v>147564.67110000001</v>
@@ -22415,16 +22647,19 @@
       <c r="AI75" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ75" s="41">
+        <v>207102.02155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" ht="14">
       <c r="A76" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="40" t="s">
         <v>168</v>
-      </c>
-      <c r="C76" s="41">
-        <v>46115.237730000001</v>
       </c>
       <c r="D76" s="41">
         <v>32242.504420000001</v>
@@ -22522,16 +22757,19 @@
       <c r="AI76" s="41">
         <v>320509</v>
       </c>
-    </row>
-    <row r="77" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ76" s="41">
+        <v>46115.237730000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" ht="14">
       <c r="A77" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>170</v>
-      </c>
-      <c r="C77" s="41">
-        <v>35939.094469999996</v>
       </c>
       <c r="D77" s="41">
         <v>10339.33618</v>
@@ -22629,16 +22867,19 @@
       <c r="AI77" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ77" s="41">
+        <v>35939.094469999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" ht="14">
       <c r="A78" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="40" t="s">
         <v>172</v>
-      </c>
-      <c r="C78" s="41">
-        <v>18295.940689999999</v>
       </c>
       <c r="D78" s="41">
         <v>9822.3492900000001</v>
@@ -22736,16 +22977,19 @@
       <c r="AI78" s="41">
         <v>67370.462499999994</v>
       </c>
-    </row>
-    <row r="79" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ78" s="41">
+        <v>18295.940689999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" ht="14">
       <c r="A79" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="40" t="s">
         <v>174</v>
-      </c>
-      <c r="C79" s="41">
-        <v>90735.044980000006</v>
       </c>
       <c r="D79" s="41">
         <v>992.31871000000001</v>
@@ -22843,16 +23087,19 @@
       <c r="AI79" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ79" s="41">
+        <v>90735.044980000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" ht="14">
       <c r="A80" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="40" t="s">
         <v>176</v>
-      </c>
-      <c r="C80" s="41">
-        <v>20901.871879999999</v>
       </c>
       <c r="D80" s="41">
         <v>15321.22746</v>
@@ -22950,16 +23197,19 @@
       <c r="AI80" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ80" s="41">
+        <v>20901.871879999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" ht="14">
       <c r="A81" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="40" t="s">
         <v>178</v>
-      </c>
-      <c r="C81" s="41">
-        <v>76433.806289999993</v>
       </c>
       <c r="D81" s="41">
         <v>3218.9200799999999</v>
@@ -23057,16 +23307,19 @@
       <c r="AI81" s="41">
         <v>203896.37</v>
       </c>
-    </row>
-    <row r="82" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ81" s="41">
+        <v>76433.806289999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" ht="14">
       <c r="A82" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="40" t="s">
         <v>180</v>
-      </c>
-      <c r="C82" s="41">
-        <v>76912.717229999995</v>
       </c>
       <c r="D82" s="41">
         <v>43922.96155</v>
@@ -23164,16 +23417,19 @@
       <c r="AI82" s="41">
         <v>121166.9145</v>
       </c>
-    </row>
-    <row r="83" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ82" s="41">
+        <v>76912.717229999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" ht="14">
       <c r="A83" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="40" t="s">
         <v>182</v>
-      </c>
-      <c r="C83" s="41">
-        <v>27991.538209999999</v>
       </c>
       <c r="D83" s="41">
         <v>12115.76665</v>
@@ -23271,16 +23527,19 @@
       <c r="AI83" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ83" s="41">
+        <v>27991.538209999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" ht="14">
       <c r="A84" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="40" t="s">
         <v>184</v>
-      </c>
-      <c r="C84" s="41">
-        <v>1819.78323</v>
       </c>
       <c r="D84" s="41">
         <v>1044.0914700000001</v>
@@ -23378,16 +23637,19 @@
       <c r="AI84" s="41">
         <v>78000</v>
       </c>
-    </row>
-    <row r="85" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ84" s="41">
+        <v>1819.78323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" ht="14.25" customHeight="1">
       <c r="A85" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="40" t="s">
         <v>186</v>
-      </c>
-      <c r="C85" s="41">
-        <v>118650.43305000001</v>
       </c>
       <c r="D85" s="41">
         <v>94920.452260000005</v>
@@ -23485,16 +23747,19 @@
       <c r="AI85" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ85" s="41">
+        <v>118650.43305000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" ht="14">
       <c r="A86" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="B86" s="40" t="s">
+      <c r="B86" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="40" t="s">
         <v>188</v>
-      </c>
-      <c r="C86" s="41">
-        <v>17893.615470000001</v>
       </c>
       <c r="D86" s="41">
         <v>0</v>
@@ -23592,16 +23857,19 @@
       <c r="AI86" s="41">
         <v>825351.73002000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ86" s="41">
+        <v>17893.615470000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" ht="14">
       <c r="A87" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="40" t="s">
         <v>190</v>
-      </c>
-      <c r="C87" s="41">
-        <v>747.00539000000003</v>
       </c>
       <c r="D87" s="41">
         <v>0</v>
@@ -23699,16 +23967,19 @@
       <c r="AI87" s="41">
         <v>20000</v>
       </c>
-    </row>
-    <row r="88" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ87" s="41">
+        <v>747.00539000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" ht="14.25" customHeight="1">
       <c r="A88" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="40" t="s">
         <v>192</v>
-      </c>
-      <c r="C88" s="41">
-        <v>8106.4095500000003</v>
       </c>
       <c r="D88" s="41">
         <v>5336.66788</v>
@@ -23806,16 +24077,19 @@
       <c r="AI88" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ88" s="41">
+        <v>8106.4095500000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" ht="14">
       <c r="A89" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="40" t="s">
         <v>194</v>
-      </c>
-      <c r="C89" s="41">
-        <v>130041.02674</v>
       </c>
       <c r="D89" s="41">
         <v>53816.938199999997</v>
@@ -23913,16 +24187,19 @@
       <c r="AI89" s="41">
         <v>101250.125</v>
       </c>
-    </row>
-    <row r="90" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="AJ89" s="41">
+        <v>130041.02674</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" ht="14">
       <c r="A90" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="44" t="s">
         <v>196</v>
-      </c>
-      <c r="C90" s="45">
-        <v>26238.19886</v>
       </c>
       <c r="D90" s="45">
         <v>17076.049459999998</v>
@@ -24020,15 +24297,16 @@
       <c r="AI90" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A91" s="62" t="s">
+      <c r="AJ90" s="45">
+        <v>26238.19886</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36">
+      <c r="A91" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="46">
-        <v>96383900.359579995</v>
-      </c>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
       <c r="D91" s="46">
         <v>40163733.35486</v>
       </c>
@@ -24125,12 +24403,15 @@
       <c r="AI91" s="46">
         <v>346967255.79113001</v>
       </c>
-    </row>
-    <row r="93" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ91" s="46">
+        <v>96383900.359579995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" ht="33.75" customHeight="1">
       <c r="A93" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="B93" s="68"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="68"/>
       <c r="D93" s="68"/>
       <c r="E93" s="68"/>
@@ -24167,9 +24448,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:AI4"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D4:AI4"/>
     <mergeCell ref="A93:AI93"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0" bottom="0" header="0" footer="0"/>
@@ -24178,6 +24459,733 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0882D-EF34-1647-A0DB-879FDC41F13C}">
+  <sheetPr>
+    <tabColor rgb="FFCC3300"/>
+  </sheetPr>
+  <dimension ref="C1:D91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="3:4" ht="42">
+      <c r="C6" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="41">
+        <v>8117759.7105299998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="41">
+        <v>518002.43115999998</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2258581.7597099999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="41">
+        <v>14770008.790270001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="41">
+        <v>189273.26203000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="41">
+        <v>8022246.10769</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="41">
+        <v>1265000.3433000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="41">
+        <v>38130.254910000003</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="41">
+        <v>20478856.330940001</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="41">
+        <v>70638.683969999998</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="41">
+        <v>1101254.8222699999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="41">
+        <v>17814.032200000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="41">
+        <v>1158850.69936</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="41">
+        <v>134943.78404</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="41">
+        <v>40281.04952</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="41">
+        <v>213731.51301</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="41">
+        <v>199633.97003999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="41">
+        <v>394125.04255999997</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="41">
+        <v>412250.27708000003</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="41">
+        <v>2387268.1715299999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="41">
+        <v>139353.42992</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="41">
+        <v>2344426.1651099999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="41">
+        <v>76537.757670000006</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="41">
+        <v>482145.40665999998</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="41">
+        <v>16671.613420000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="41">
+        <v>36892.777220000004</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="41">
+        <v>89794.626529999994</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="41">
+        <v>4954928.8132100003</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="41">
+        <v>169655.00698000001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="41">
+        <v>174542.52421</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="41">
+        <v>31061.49697</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="41">
+        <v>1098440.1043100001</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="41">
+        <v>2915470.0783299999</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="41">
+        <v>156284.43267000001</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="41">
+        <v>52625.184630000003</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="41">
+        <v>44944.986510000002</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="41">
+        <v>171712.43768999999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="41">
+        <v>79168.421239999996</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="41">
+        <v>81515.303700000004</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="41">
+        <v>454408.14582999999</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="41">
+        <v>14534.508449999999</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="41">
+        <v>246721.89694000001</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="41">
+        <v>374339.43453999999</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="41">
+        <v>2643563.8433500002</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="41">
+        <v>6485365.5893700002</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="41">
+        <v>106365.38179</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="41">
+        <v>155650.41091000001</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="41">
+        <v>71808.46931</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="41">
+        <v>466523.25825999997</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="41">
+        <v>3091266.03999</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="41">
+        <v>1015289.21461</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="41">
+        <v>821381.89216000005</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="41">
+        <v>1888441.6776000001</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="41">
+        <v>1108429.0722699999</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="41">
+        <v>16365.11823</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="41">
+        <v>1889.6328000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="41">
+        <v>147122.36804999999</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="41">
+        <v>410397.16131</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="41">
+        <v>60566.828650000003</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="41">
+        <v>90140.131640000007</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="41">
+        <v>60642.79952</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="41">
+        <v>18473.230940000001</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" s="41">
+        <v>64439.339500000002</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="41">
+        <v>145165.39845000001</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="41">
+        <v>118871.40734999999</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="41">
+        <v>118162.0095</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="41">
+        <v>20085.650750000001</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="41">
+        <v>358745.09908999997</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="41">
+        <v>207102.02155</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="41">
+        <v>46115.237730000001</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="41">
+        <v>35939.094469999996</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="41">
+        <v>18295.940689999999</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="41">
+        <v>90735.044980000006</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="41">
+        <v>20901.871879999999</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" s="41">
+        <v>76433.806289999993</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="41">
+        <v>76912.717229999995</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="41">
+        <v>27991.538209999999</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="41">
+        <v>1819.78323</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" s="41">
+        <v>118650.43305000001</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="41">
+        <v>17893.615470000001</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="41">
+        <v>747.00539000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" s="41">
+        <v>8106.4095500000003</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="41">
+        <v>130041.02674</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" s="45">
+        <v>26238.19886</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="D91" s="46">
+        <v>96383900.359579995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCC3300"/>
@@ -24190,7 +25198,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="22" customWidth="1"/>
@@ -24204,7 +25212,7 @@
     <col min="19" max="19" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
@@ -24225,21 +25233,21 @@
       <c r="R1" s="35"/>
       <c r="S1" s="35"/>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="64"/>
       <c r="S3" s="18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="37">
         <v>43160</v>
@@ -24264,7 +25272,7 @@
       <c r="R4" s="72"/>
       <c r="S4" s="73"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="158.25" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>259</v>
       </c>
@@ -24323,7 +25331,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="13.25" customHeight="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -24382,7 +25390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="14">
       <c r="A7" s="47" t="s">
         <v>29</v>
       </c>
@@ -24441,7 +25449,7 @@
         <v>147792791.80480999</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="14">
       <c r="A8" s="47" t="s">
         <v>31</v>
       </c>
@@ -24500,7 +25508,7 @@
         <v>12801129.127280001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="14">
       <c r="A9" s="47" t="s">
         <v>33</v>
       </c>
@@ -24559,7 +25567,7 @@
         <v>21700229.75561</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="14">
       <c r="A10" s="47" t="s">
         <v>35</v>
       </c>
@@ -24618,7 +25626,7 @@
         <v>199809642.18118</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="14">
       <c r="A11" s="47" t="s">
         <v>37</v>
       </c>
@@ -24677,7 +25685,7 @@
         <v>653691.98875999998</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="14">
       <c r="A12" s="47" t="s">
         <v>39</v>
       </c>
@@ -24736,7 +25744,7 @@
         <v>54522351.728069998</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="14">
       <c r="A13" s="47" t="s">
         <v>41</v>
       </c>
@@ -24795,7 +25803,7 @@
         <v>9497333.6535500009</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="14">
       <c r="A14" s="47" t="s">
         <v>43</v>
       </c>
@@ -24854,7 +25862,7 @@
         <v>167039.71598000001</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="14">
       <c r="A15" s="47" t="s">
         <v>45</v>
       </c>
@@ -24913,7 +25921,7 @@
         <v>228711497.13834</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="14">
       <c r="A16" s="47" t="s">
         <v>47</v>
       </c>
@@ -24972,7 +25980,7 @@
         <v>330597.4302</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="14">
       <c r="A17" s="47" t="s">
         <v>49</v>
       </c>
@@ -25031,7 +26039,7 @@
         <v>12784540.937349999</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="14">
       <c r="A18" s="47" t="s">
         <v>51</v>
       </c>
@@ -25090,7 +26098,7 @@
         <v>182448.14395</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="14">
       <c r="A19" s="47" t="s">
         <v>53</v>
       </c>
@@ -25149,7 +26157,7 @@
         <v>12089052.199130001</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="14">
       <c r="A20" s="47" t="s">
         <v>55</v>
       </c>
@@ -25208,7 +26216,7 @@
         <v>1527397.3071300001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="14">
       <c r="A21" s="47" t="s">
         <v>57</v>
       </c>
@@ -25267,7 +26275,7 @@
         <v>365314.26867999998</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="14">
       <c r="A22" s="47" t="s">
         <v>59</v>
       </c>
@@ -25326,7 +26334,7 @@
         <v>3895281.9694699999</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="14">
       <c r="A23" s="47" t="s">
         <v>61</v>
       </c>
@@ -25385,7 +26393,7 @@
         <v>1571281.71071</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="14">
       <c r="A24" s="47" t="s">
         <v>63</v>
       </c>
@@ -25444,7 +26452,7 @@
         <v>2875056.5772500001</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="14">
       <c r="A25" s="47" t="s">
         <v>65</v>
       </c>
@@ -25503,7 +26511,7 @@
         <v>3569731.9697799999</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="14">
       <c r="A26" s="47" t="s">
         <v>67</v>
       </c>
@@ -25562,7 +26570,7 @@
         <v>21107566.61476</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="14">
       <c r="A27" s="47" t="s">
         <v>69</v>
       </c>
@@ -25621,7 +26629,7 @@
         <v>1331923.32929</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="14">
       <c r="A28" s="47" t="s">
         <v>71</v>
       </c>
@@ -25680,7 +26688,7 @@
         <v>43297181.35238</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="14">
       <c r="A29" s="47" t="s">
         <v>73</v>
       </c>
@@ -25739,7 +26747,7 @@
         <v>726937.80807000003</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="14">
       <c r="A30" s="47" t="s">
         <v>75</v>
       </c>
@@ -25798,7 +26806,7 @@
         <v>8306694.28608</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="14">
       <c r="A31" s="47" t="s">
         <v>77</v>
       </c>
@@ -25857,7 +26865,7 @@
         <v>177138.11272</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="14">
       <c r="A32" s="47" t="s">
         <v>79</v>
       </c>
@@ -25916,7 +26924,7 @@
         <v>201883.95918999999</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="14">
       <c r="A33" s="47" t="s">
         <v>81</v>
       </c>
@@ -25975,7 +26983,7 @@
         <v>659399.37433000002</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="14">
       <c r="A34" s="47" t="s">
         <v>83</v>
       </c>
@@ -26034,7 +27042,7 @@
         <v>36880428.896969996</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="14">
       <c r="A35" s="47" t="s">
         <v>85</v>
       </c>
@@ -26093,7 +27101,7 @@
         <v>3013458.7653899998</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="14">
       <c r="A36" s="47" t="s">
         <v>87</v>
       </c>
@@ -26152,7 +27160,7 @@
         <v>1110282.9891600001</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="14">
       <c r="A37" s="47" t="s">
         <v>89</v>
       </c>
@@ -26211,7 +27219,7 @@
         <v>661033.76199000003</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="14">
       <c r="A38" s="47" t="s">
         <v>91</v>
       </c>
@@ -26270,7 +27278,7 @@
         <v>2827840.6248499998</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="14">
       <c r="A39" s="47" t="s">
         <v>93</v>
       </c>
@@ -26329,7 +27337,7 @@
         <v>26865794.11651</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="14">
       <c r="A40" s="47" t="s">
         <v>95</v>
       </c>
@@ -26388,7 +27396,7 @@
         <v>1479094.20175</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="14">
       <c r="A41" s="47" t="s">
         <v>97</v>
       </c>
@@ -26447,7 +27455,7 @@
         <v>503681.07420999999</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="14">
       <c r="A42" s="47" t="s">
         <v>99</v>
       </c>
@@ -26506,7 +27514,7 @@
         <v>1588378.5070799999</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="14">
       <c r="A43" s="47" t="s">
         <v>101</v>
       </c>
@@ -26565,7 +27573,7 @@
         <v>538447.95776000002</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="14">
       <c r="A44" s="47" t="s">
         <v>103</v>
       </c>
@@ -26624,7 +27632,7 @@
         <v>527378.12638999999</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="14">
       <c r="A45" s="47" t="s">
         <v>105</v>
       </c>
@@ -26683,7 +27691,7 @@
         <v>480055.99919</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="14">
       <c r="A46" s="47" t="s">
         <v>107</v>
       </c>
@@ -26742,7 +27750,7 @@
         <v>4488017.2416899996</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="14">
       <c r="A47" s="47" t="s">
         <v>109</v>
       </c>
@@ -26801,7 +27809,7 @@
         <v>322932.55261999997</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="14">
       <c r="A48" s="47" t="s">
         <v>111</v>
       </c>
@@ -26860,7 +27868,7 @@
         <v>2435447.5062799999</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="14">
       <c r="A49" s="47" t="s">
         <v>113</v>
       </c>
@@ -26919,7 +27927,7 @@
         <v>7572370.16292</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="14">
       <c r="A50" s="47" t="s">
         <v>115</v>
       </c>
@@ -26978,7 +27986,7 @@
         <v>44538429.711170003</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="14">
       <c r="A51" s="47" t="s">
         <v>117</v>
       </c>
@@ -27037,7 +28045,7 @@
         <v>66914592.440499999</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="14">
       <c r="A52" s="47" t="s">
         <v>119</v>
       </c>
@@ -27096,7 +28104,7 @@
         <v>759885.38297999999</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="14">
       <c r="A53" s="47" t="s">
         <v>121</v>
       </c>
@@ -27155,7 +28163,7 @@
         <v>1838572.2589499999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="14">
       <c r="A54" s="47" t="s">
         <v>123</v>
       </c>
@@ -27214,7 +28222,7 @@
         <v>1010308.43458</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="14">
       <c r="A55" s="47" t="s">
         <v>125</v>
       </c>
@@ -27273,7 +28281,7 @@
         <v>6538860.9640800003</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="14">
       <c r="A56" s="47" t="s">
         <v>127</v>
       </c>
@@ -27332,7 +28340,7 @@
         <v>25285317.953960001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="14">
       <c r="A57" s="47" t="s">
         <v>129</v>
       </c>
@@ -27391,7 +28399,7 @@
         <v>18666947.440669999</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="14">
       <c r="A58" s="47" t="s">
         <v>131</v>
       </c>
@@ -27450,7 +28458,7 @@
         <v>14130194.380820001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="14">
       <c r="A59" s="47" t="s">
         <v>133</v>
       </c>
@@ -27509,7 +28517,7 @@
         <v>35812063.158310004</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="14">
       <c r="A60" s="47" t="s">
         <v>135</v>
       </c>
@@ -27568,7 +28576,7 @@
         <v>8038186.1787999999</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="14">
       <c r="A61" s="47" t="s">
         <v>137</v>
       </c>
@@ -27627,7 +28635,7 @@
         <v>94193.956919999997</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="14.25" customHeight="1">
       <c r="A62" s="47" t="s">
         <v>139</v>
       </c>
@@ -27686,7 +28694,7 @@
         <v>30838.387589999998</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="14">
       <c r="A63" s="47" t="s">
         <v>141</v>
       </c>
@@ -27745,7 +28753,7 @@
         <v>17431351.016339999</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="14">
       <c r="A64" s="47" t="s">
         <v>143</v>
       </c>
@@ -27804,7 +28812,7 @@
         <v>3469589.0789399999</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="14">
       <c r="A65" s="47" t="s">
         <v>145</v>
       </c>
@@ -27863,7 +28871,7 @@
         <v>798313.20917000005</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="14">
       <c r="A66" s="47" t="s">
         <v>147</v>
       </c>
@@ -27922,7 +28930,7 @@
         <v>1920376.5752099999</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="14">
       <c r="A67" s="47" t="s">
         <v>149</v>
       </c>
@@ -27981,7 +28989,7 @@
         <v>445634.42793000001</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="14">
       <c r="A68" s="47" t="s">
         <v>151</v>
       </c>
@@ -28040,7 +29048,7 @@
         <v>853199.78023000003</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="14">
       <c r="A69" s="47" t="s">
         <v>153</v>
       </c>
@@ -28099,7 +29107,7 @@
         <v>1227189.07226</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="14">
       <c r="A70" s="47" t="s">
         <v>155</v>
       </c>
@@ -28158,7 +29166,7 @@
         <v>816584.76976000005</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="14">
       <c r="A71" s="47" t="s">
         <v>157</v>
       </c>
@@ -28217,7 +29225,7 @@
         <v>1576991.4247699999</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="14">
       <c r="A72" s="47" t="s">
         <v>159</v>
       </c>
@@ -28276,7 +29284,7 @@
         <v>2154713.5514099998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="14">
       <c r="A73" s="47" t="s">
         <v>161</v>
       </c>
@@ -28335,7 +29343,7 @@
         <v>272861.73823000002</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="14">
       <c r="A74" s="47" t="s">
         <v>163</v>
       </c>
@@ -28394,7 +29402,7 @@
         <v>8772143.1793399993</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="14">
       <c r="A75" s="47" t="s">
         <v>165</v>
       </c>
@@ -28453,7 +29461,7 @@
         <v>444742.65597000002</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="14">
       <c r="A76" s="47" t="s">
         <v>167</v>
       </c>
@@ -28512,7 +29520,7 @@
         <v>333387.98927999998</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="14">
       <c r="A77" s="47" t="s">
         <v>169</v>
       </c>
@@ -28571,7 +29579,7 @@
         <v>310715.90684000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="14">
       <c r="A78" s="47" t="s">
         <v>171</v>
       </c>
@@ -28630,7 +29638,7 @@
         <v>287302.87507000001</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="14">
       <c r="A79" s="47" t="s">
         <v>173</v>
       </c>
@@ -28689,7 +29697,7 @@
         <v>1343215.1794700001</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="14">
       <c r="A80" s="47" t="s">
         <v>175</v>
       </c>
@@ -28748,7 +29756,7 @@
         <v>65453.611010000001</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="14">
       <c r="A81" s="47" t="s">
         <v>177</v>
       </c>
@@ -28807,7 +29815,7 @@
         <v>1157712.2718100001</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="14">
       <c r="A82" s="47" t="s">
         <v>179</v>
       </c>
@@ -28866,7 +29874,7 @@
         <v>611534.52688999998</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="14">
       <c r="A83" s="47" t="s">
         <v>181</v>
       </c>
@@ -28925,7 +29933,7 @@
         <v>66989.401159999994</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="14">
       <c r="A84" s="47" t="s">
         <v>183</v>
       </c>
@@ -28984,7 +29992,7 @@
         <v>4953.46958</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="14">
       <c r="A85" s="47" t="s">
         <v>185</v>
       </c>
@@ -29043,7 +30051,7 @@
         <v>306454.79255000001</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="14">
       <c r="A86" s="47" t="s">
         <v>187</v>
       </c>
@@ -29102,7 +30110,7 @@
         <v>1192738.9555299999</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="14">
       <c r="A87" s="47" t="s">
         <v>189</v>
       </c>
@@ -29161,7 +30169,7 @@
         <v>542684.02948999999</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="14">
       <c r="A88" s="47" t="s">
         <v>191</v>
       </c>
@@ -29220,7 +30228,7 @@
         <v>28472.342199999999</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="14">
       <c r="A89" s="47" t="s">
         <v>193</v>
       </c>
@@ -29279,7 +30287,7 @@
         <v>925615.61831000005</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="14">
       <c r="A90" s="52" t="s">
         <v>195</v>
       </c>
@@ -29338,7 +30346,7 @@
         <v>280835.66855</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="69" t="s">
         <v>279</v>
       </c>
@@ -29395,7 +30403,7 @@
         <v>1153249924.6954401</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="50"/>
       <c r="B92" s="51"/>
       <c r="C92" s="50"/>
@@ -29416,7 +30424,7 @@
       <c r="R92" s="50"/>
       <c r="S92" s="50"/>
     </row>
-    <row r="93" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="33" customHeight="1">
       <c r="A93" s="67" t="s">
         <v>280</v>
       </c>
@@ -29452,7 +30460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCC3300"/>
@@ -29465,7 +30473,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
@@ -29478,7 +30486,7 @@
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
@@ -29490,12 +30498,12 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>270</v>
       </c>
@@ -29504,7 +30512,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>43160</v>
@@ -29520,7 +30528,7 @@
       <c r="I4" s="74"/>
       <c r="J4" s="74"/>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="118.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="118.25" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>259</v>
       </c>
@@ -29552,7 +30560,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="15.5" customHeight="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -29584,7 +30592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="14">
       <c r="A7" s="55" t="s">
         <v>29</v>
       </c>
@@ -29616,7 +30624,7 @@
         <v>7957063.7793100001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="14">
       <c r="A8" s="55" t="s">
         <v>31</v>
       </c>
@@ -29648,7 +30656,7 @@
         <v>5959430.4918799996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="14">
       <c r="A9" s="55" t="s">
         <v>33</v>
       </c>
@@ -29680,7 +30688,7 @@
         <v>4390952.8863500003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="14">
       <c r="A10" s="55" t="s">
         <v>35</v>
       </c>
@@ -29712,7 +30720,7 @@
         <v>31320448.643449999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="14">
       <c r="A11" s="55" t="s">
         <v>37</v>
       </c>
@@ -29744,7 +30752,7 @@
         <v>292481.67541999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="14">
       <c r="A12" s="55" t="s">
         <v>39</v>
       </c>
@@ -29776,7 +30784,7 @@
         <v>11621616.84251</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="14">
       <c r="A13" s="55" t="s">
         <v>41</v>
       </c>
@@ -29808,7 +30816,7 @@
         <v>1136573.13265</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="14">
       <c r="A14" s="55" t="s">
         <v>43</v>
       </c>
@@ -29840,7 +30848,7 @@
         <v>221309.21147000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="14">
       <c r="A15" s="55" t="s">
         <v>45</v>
       </c>
@@ -29872,7 +30880,7 @@
         <v>24200693.631779999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="14">
       <c r="A16" s="55" t="s">
         <v>47</v>
       </c>
@@ -29904,7 +30912,7 @@
         <v>259276.04545000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="14">
       <c r="A17" s="55" t="s">
         <v>49</v>
       </c>
@@ -29936,7 +30944,7 @@
         <v>1022655.31489</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="14">
       <c r="A18" s="55" t="s">
         <v>51</v>
       </c>
@@ -29968,7 +30976,7 @@
         <v>169144.98272</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="14">
       <c r="A19" s="55" t="s">
         <v>53</v>
       </c>
@@ -30000,7 +31008,7 @@
         <v>1558498.02467</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="14">
       <c r="A20" s="55" t="s">
         <v>55</v>
       </c>
@@ -30032,7 +31040,7 @@
         <v>200136.56735</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="14">
       <c r="A21" s="55" t="s">
         <v>57</v>
       </c>
@@ -30064,7 +31072,7 @@
         <v>209508.03133</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="14">
       <c r="A22" s="55" t="s">
         <v>59</v>
       </c>
@@ -30096,7 +31104,7 @@
         <v>747670.09907</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="14">
       <c r="A23" s="55" t="s">
         <v>61</v>
       </c>
@@ -30128,7 +31136,7 @@
         <v>1038998.05317</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="14">
       <c r="A24" s="55" t="s">
         <v>63</v>
       </c>
@@ -30160,7 +31168,7 @@
         <v>1293354.2707799999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="14">
       <c r="A25" s="55" t="s">
         <v>65</v>
       </c>
@@ -30192,7 +31200,7 @@
         <v>475257.51822999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="14">
       <c r="A26" s="55" t="s">
         <v>67</v>
       </c>
@@ -30224,7 +31232,7 @@
         <v>2325346.5735499999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="14">
       <c r="A27" s="55" t="s">
         <v>69</v>
       </c>
@@ -30256,7 +31264,7 @@
         <v>637257.71756999998</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="14">
       <c r="A28" s="55" t="s">
         <v>71</v>
       </c>
@@ -30288,7 +31296,7 @@
         <v>5056422.8990599997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="14">
       <c r="A29" s="55" t="s">
         <v>73</v>
       </c>
@@ -30320,7 +31328,7 @@
         <v>562244.00016000005</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="14">
       <c r="A30" s="55" t="s">
         <v>75</v>
       </c>
@@ -30352,7 +31360,7 @@
         <v>1039136.61543</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="14">
       <c r="A31" s="55" t="s">
         <v>77</v>
       </c>
@@ -30384,7 +31392,7 @@
         <v>221029.48501</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="14">
       <c r="A32" s="55" t="s">
         <v>79</v>
       </c>
@@ -30416,7 +31424,7 @@
         <v>395739.24771999998</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="14">
       <c r="A33" s="55" t="s">
         <v>81</v>
       </c>
@@ -30448,7 +31456,7 @@
         <v>415127.78580000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="14">
       <c r="A34" s="55" t="s">
         <v>83</v>
       </c>
@@ -30480,7 +31488,7 @@
         <v>5727583.5012100004</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="14">
       <c r="A35" s="55" t="s">
         <v>85</v>
       </c>
@@ -30512,7 +31520,7 @@
         <v>494142.84424000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="14">
       <c r="A36" s="55" t="s">
         <v>87</v>
       </c>
@@ -30544,7 +31552,7 @@
         <v>300051.83867999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="14">
       <c r="A37" s="55" t="s">
         <v>89</v>
       </c>
@@ -30576,7 +31584,7 @@
         <v>237239.35393000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="14">
       <c r="A38" s="55" t="s">
         <v>91</v>
       </c>
@@ -30608,7 +31616,7 @@
         <v>2118499.9102699999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="14">
       <c r="A39" s="55" t="s">
         <v>93</v>
       </c>
@@ -30640,7 +31648,7 @@
         <v>3427020.8872799999</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="14">
       <c r="A40" s="55" t="s">
         <v>95</v>
       </c>
@@ -30672,7 +31680,7 @@
         <v>871097.60560999997</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="14">
       <c r="A41" s="55" t="s">
         <v>97</v>
       </c>
@@ -30704,7 +31712,7 @@
         <v>244450.52663000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="14">
       <c r="A42" s="55" t="s">
         <v>99</v>
       </c>
@@ -30736,7 +31744,7 @@
         <v>265883.08007999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="14">
       <c r="A43" s="55" t="s">
         <v>101</v>
       </c>
@@ -30768,7 +31776,7 @@
         <v>271776.99884999997</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="14">
       <c r="A44" s="55" t="s">
         <v>103</v>
       </c>
@@ -30800,7 +31808,7 @@
         <v>216030.59679000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="14">
       <c r="A45" s="55" t="s">
         <v>105</v>
       </c>
@@ -30832,7 +31840,7 @@
         <v>229375.51543</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="14">
       <c r="A46" s="55" t="s">
         <v>107</v>
       </c>
@@ -30864,7 +31872,7 @@
         <v>955411.77720000001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="14">
       <c r="A47" s="55" t="s">
         <v>109</v>
       </c>
@@ -30896,7 +31904,7 @@
         <v>202092.60647</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="14">
       <c r="A48" s="55" t="s">
         <v>111</v>
       </c>
@@ -30928,7 +31936,7 @@
         <v>569903.85051000002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="14">
       <c r="A49" s="55" t="s">
         <v>113</v>
       </c>
@@ -30960,7 +31968,7 @@
         <v>871903.18087000097</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="14">
       <c r="A50" s="55" t="s">
         <v>115</v>
       </c>
@@ -30992,7 +32000,7 @@
         <v>3994176.76651</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="14">
       <c r="A51" s="55" t="s">
         <v>117</v>
       </c>
@@ -31024,7 +32032,7 @@
         <v>5470844.2029999997</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="14">
       <c r="A52" s="55" t="s">
         <v>119</v>
       </c>
@@ -31056,7 +32064,7 @@
         <v>255362.21614</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="14">
       <c r="A53" s="55" t="s">
         <v>121</v>
       </c>
@@ -31088,7 +32096,7 @@
         <v>384119.92833000002</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="14">
       <c r="A54" s="55" t="s">
         <v>123</v>
       </c>
@@ -31120,7 +32128,7 @@
         <v>257180.43887000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="14">
       <c r="A55" s="55" t="s">
         <v>125</v>
       </c>
@@ -31152,7 +32160,7 @@
         <v>3822641.5098100002</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="14">
       <c r="A56" s="55" t="s">
         <v>127</v>
       </c>
@@ -31184,7 +32192,7 @@
         <v>4091385.4808899998</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="14">
       <c r="A57" s="55" t="s">
         <v>129</v>
       </c>
@@ -31216,7 +32224,7 @@
         <v>2012223.15215</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="14">
       <c r="A58" s="55" t="s">
         <v>131</v>
       </c>
@@ -31248,7 +32256,7 @@
         <v>2109176.7732699998</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="14">
       <c r="A59" s="55" t="s">
         <v>133</v>
       </c>
@@ -31280,7 +32288,7 @@
         <v>5252205.8003700003</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="14">
       <c r="A60" s="55" t="s">
         <v>135</v>
       </c>
@@ -31312,7 +32320,7 @@
         <v>620492.31591</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="14">
       <c r="A61" s="55" t="s">
         <v>137</v>
       </c>
@@ -31344,7 +32352,7 @@
         <v>237599.96651999999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="14.25" customHeight="1">
       <c r="A62" s="55" t="s">
         <v>139</v>
       </c>
@@ -31376,7 +32384,7 @@
         <v>190984.71951</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="14">
       <c r="A63" s="55" t="s">
         <v>141</v>
       </c>
@@ -31408,7 +32416,7 @@
         <v>-5103233.2482000003</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="14">
       <c r="A64" s="55" t="s">
         <v>143</v>
       </c>
@@ -31440,7 +32448,7 @@
         <v>543886.57093000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="14">
       <c r="A65" s="55" t="s">
         <v>145</v>
       </c>
@@ -31472,7 +32480,7 @@
         <v>226197.6606</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="14">
       <c r="A66" s="55" t="s">
         <v>147</v>
       </c>
@@ -31504,7 +32512,7 @@
         <v>-222251.88605</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="14">
       <c r="A67" s="55" t="s">
         <v>149</v>
       </c>
@@ -31536,7 +32544,7 @@
         <v>213724.28817000001</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="14">
       <c r="A68" s="55" t="s">
         <v>151</v>
       </c>
@@ -31568,7 +32576,7 @@
         <v>502437.41999000002</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="14">
       <c r="A69" s="55" t="s">
         <v>153</v>
       </c>
@@ -31600,7 +32608,7 @@
         <v>359836.83343</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="14">
       <c r="A70" s="55" t="s">
         <v>155</v>
       </c>
@@ -31632,7 +32640,7 @@
         <v>216632.11989999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="14">
       <c r="A71" s="55" t="s">
         <v>157</v>
       </c>
@@ -31664,7 +32672,7 @@
         <v>284235.45447</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="14">
       <c r="A72" s="55" t="s">
         <v>159</v>
       </c>
@@ -31696,7 +32704,7 @@
         <v>287504.02990000002</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="14">
       <c r="A73" s="55" t="s">
         <v>161</v>
       </c>
@@ -31728,7 +32736,7 @@
         <v>306664.34052999999</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="14">
       <c r="A74" s="55" t="s">
         <v>163</v>
       </c>
@@ -31760,7 +32768,7 @@
         <v>289963.42320999998</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="14">
       <c r="A75" s="55" t="s">
         <v>165</v>
       </c>
@@ -31792,7 +32800,7 @@
         <v>183441.76525999999</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="14">
       <c r="A76" s="55" t="s">
         <v>167</v>
       </c>
@@ -31824,7 +32832,7 @@
         <v>568316.29166999995</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="14">
       <c r="A77" s="55" t="s">
         <v>169</v>
       </c>
@@ -31856,7 +32864,7 @@
         <v>316014.37091</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="14">
       <c r="A78" s="55" t="s">
         <v>171</v>
       </c>
@@ -31888,7 +32896,7 @@
         <v>196557.72080000001</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="14">
       <c r="A79" s="55" t="s">
         <v>173</v>
       </c>
@@ -31920,7 +32928,7 @@
         <v>369279.52237000002</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="14">
       <c r="A80" s="55" t="s">
         <v>175</v>
       </c>
@@ -31952,7 +32960,7 @@
         <v>214049.95681</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="14">
       <c r="A81" s="55" t="s">
         <v>177</v>
       </c>
@@ -31984,7 +32992,7 @@
         <v>473628.73583999998</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="14">
       <c r="A82" s="55" t="s">
         <v>179</v>
       </c>
@@ -32016,7 +33024,7 @@
         <v>203630.29267</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="14">
       <c r="A83" s="55" t="s">
         <v>181</v>
       </c>
@@ -32048,7 +33056,7 @@
         <v>231245.48355999999</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="14">
       <c r="A84" s="55" t="s">
         <v>183</v>
       </c>
@@ -32080,7 +33088,7 @@
         <v>199994.13238</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="14">
       <c r="A85" s="55" t="s">
         <v>185</v>
       </c>
@@ -32112,7 +33120,7 @@
         <v>215813.30032000001</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="14">
       <c r="A86" s="55" t="s">
         <v>187</v>
       </c>
@@ -32144,7 +33152,7 @@
         <v>311332.27056999999</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="14">
       <c r="A87" s="55" t="s">
         <v>189</v>
       </c>
@@ -32176,7 +33184,7 @@
         <v>219236.01092999999</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="14">
       <c r="A88" s="55" t="s">
         <v>191</v>
       </c>
@@ -32208,7 +33216,7 @@
         <v>208989.74797999999</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="14">
       <c r="A89" s="55" t="s">
         <v>193</v>
       </c>
@@ -32240,7 +33248,7 @@
         <v>268431.91071999999</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="14">
       <c r="A90" s="55" t="s">
         <v>195</v>
       </c>
@@ -32272,7 +33280,7 @@
         <v>227554.12182</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="57" t="s">
         <v>279</v>
       </c>
@@ -32302,7 +33310,7 @@
         <v>152741343.51359999</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="43.5" customHeight="1">
       <c r="A92" s="67" t="s">
         <v>281</v>
       </c>
@@ -32335,7 +33343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCC3300"/>
@@ -32348,7 +33356,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
@@ -32358,7 +33366,7 @@
     <col min="27" max="39" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>271</v>
       </c>
@@ -32401,7 +33409,7 @@
       <c r="AL1" s="26"/>
       <c r="AM1" s="26"/>
     </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="26"/>
@@ -32442,11 +33450,11 @@
       <c r="AL2" s="26"/>
       <c r="AM2" s="26"/>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -32487,7 +33495,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="36">
         <v>43160</v>
@@ -32532,7 +33540,7 @@
       <c r="AL4" s="76"/>
       <c r="AM4" s="76"/>
     </row>
-    <row r="5" spans="1:40" s="11" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" s="11" customFormat="1" ht="138.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>259</v>
       </c>
@@ -32651,7 +33659,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="30" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" s="30" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -32770,7 +33778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" ht="14">
       <c r="A7" s="55" t="s">
         <v>29</v>
       </c>
@@ -32890,7 +33898,7 @@
       </c>
       <c r="AN7" s="38"/>
     </row>
-    <row r="8" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="14">
       <c r="A8" s="55" t="s">
         <v>31</v>
       </c>
@@ -33010,7 +34018,7 @@
       </c>
       <c r="AN8" s="38"/>
     </row>
-    <row r="9" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="14">
       <c r="A9" s="55" t="s">
         <v>33</v>
       </c>
@@ -33130,7 +34138,7 @@
       </c>
       <c r="AN9" s="38"/>
     </row>
-    <row r="10" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="14">
       <c r="A10" s="55" t="s">
         <v>35</v>
       </c>
@@ -33250,7 +34258,7 @@
       </c>
       <c r="AN10" s="38"/>
     </row>
-    <row r="11" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="14">
       <c r="A11" s="55" t="s">
         <v>37</v>
       </c>
@@ -33370,7 +34378,7 @@
       </c>
       <c r="AN11" s="38"/>
     </row>
-    <row r="12" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="14">
       <c r="A12" s="55" t="s">
         <v>39</v>
       </c>
@@ -33490,7 +34498,7 @@
       </c>
       <c r="AN12" s="38"/>
     </row>
-    <row r="13" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="14">
       <c r="A13" s="55" t="s">
         <v>41</v>
       </c>
@@ -33610,7 +34618,7 @@
       </c>
       <c r="AN13" s="38"/>
     </row>
-    <row r="14" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="14">
       <c r="A14" s="55" t="s">
         <v>43</v>
       </c>
@@ -33730,7 +34738,7 @@
       </c>
       <c r="AN14" s="38"/>
     </row>
-    <row r="15" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="14">
       <c r="A15" s="55" t="s">
         <v>45</v>
       </c>
@@ -33850,7 +34858,7 @@
       </c>
       <c r="AN15" s="38"/>
     </row>
-    <row r="16" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="14">
       <c r="A16" s="55" t="s">
         <v>47</v>
       </c>
@@ -33970,7 +34978,7 @@
       </c>
       <c r="AN16" s="38"/>
     </row>
-    <row r="17" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" ht="14">
       <c r="A17" s="55" t="s">
         <v>49</v>
       </c>
@@ -34090,7 +35098,7 @@
       </c>
       <c r="AN17" s="38"/>
     </row>
-    <row r="18" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" ht="14">
       <c r="A18" s="55" t="s">
         <v>51</v>
       </c>
@@ -34210,7 +35218,7 @@
       </c>
       <c r="AN18" s="38"/>
     </row>
-    <row r="19" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" ht="14">
       <c r="A19" s="55" t="s">
         <v>53</v>
       </c>
@@ -34330,7 +35338,7 @@
       </c>
       <c r="AN19" s="38"/>
     </row>
-    <row r="20" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" ht="14">
       <c r="A20" s="55" t="s">
         <v>55</v>
       </c>
@@ -34450,7 +35458,7 @@
       </c>
       <c r="AN20" s="38"/>
     </row>
-    <row r="21" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" ht="14">
       <c r="A21" s="55" t="s">
         <v>57</v>
       </c>
@@ -34570,7 +35578,7 @@
       </c>
       <c r="AN21" s="38"/>
     </row>
-    <row r="22" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" ht="14">
       <c r="A22" s="55" t="s">
         <v>59</v>
       </c>
@@ -34690,7 +35698,7 @@
       </c>
       <c r="AN22" s="38"/>
     </row>
-    <row r="23" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" ht="14">
       <c r="A23" s="55" t="s">
         <v>61</v>
       </c>
@@ -34810,7 +35818,7 @@
       </c>
       <c r="AN23" s="38"/>
     </row>
-    <row r="24" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" ht="14">
       <c r="A24" s="55" t="s">
         <v>63</v>
       </c>
@@ -34930,7 +35938,7 @@
       </c>
       <c r="AN24" s="38"/>
     </row>
-    <row r="25" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" ht="14">
       <c r="A25" s="55" t="s">
         <v>65</v>
       </c>
@@ -35050,7 +36058,7 @@
       </c>
       <c r="AN25" s="38"/>
     </row>
-    <row r="26" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" ht="14">
       <c r="A26" s="55" t="s">
         <v>67</v>
       </c>
@@ -35170,7 +36178,7 @@
       </c>
       <c r="AN26" s="38"/>
     </row>
-    <row r="27" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40" ht="14">
       <c r="A27" s="55" t="s">
         <v>69</v>
       </c>
@@ -35290,7 +36298,7 @@
       </c>
       <c r="AN27" s="38"/>
     </row>
-    <row r="28" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40" ht="14">
       <c r="A28" s="55" t="s">
         <v>71</v>
       </c>
@@ -35410,7 +36418,7 @@
       </c>
       <c r="AN28" s="38"/>
     </row>
-    <row r="29" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40" ht="14">
       <c r="A29" s="55" t="s">
         <v>73</v>
       </c>
@@ -35530,7 +36538,7 @@
       </c>
       <c r="AN29" s="38"/>
     </row>
-    <row r="30" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40" ht="14">
       <c r="A30" s="55" t="s">
         <v>75</v>
       </c>
@@ -35650,7 +36658,7 @@
       </c>
       <c r="AN30" s="38"/>
     </row>
-    <row r="31" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40" ht="14">
       <c r="A31" s="55" t="s">
         <v>77</v>
       </c>
@@ -35770,7 +36778,7 @@
       </c>
       <c r="AN31" s="38"/>
     </row>
-    <row r="32" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40" ht="14">
       <c r="A32" s="55" t="s">
         <v>79</v>
       </c>
@@ -35890,7 +36898,7 @@
       </c>
       <c r="AN32" s="38"/>
     </row>
-    <row r="33" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" ht="14">
       <c r="A33" s="55" t="s">
         <v>81</v>
       </c>
@@ -36010,7 +37018,7 @@
       </c>
       <c r="AN33" s="38"/>
     </row>
-    <row r="34" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" ht="14">
       <c r="A34" s="55" t="s">
         <v>83</v>
       </c>
@@ -36130,7 +37138,7 @@
       </c>
       <c r="AN34" s="38"/>
     </row>
-    <row r="35" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40" ht="14">
       <c r="A35" s="55" t="s">
         <v>85</v>
       </c>
@@ -36250,7 +37258,7 @@
       </c>
       <c r="AN35" s="38"/>
     </row>
-    <row r="36" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:40" ht="14">
       <c r="A36" s="55" t="s">
         <v>87</v>
       </c>
@@ -36370,7 +37378,7 @@
       </c>
       <c r="AN36" s="38"/>
     </row>
-    <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:40" ht="14">
       <c r="A37" s="55" t="s">
         <v>89</v>
       </c>
@@ -36490,7 +37498,7 @@
       </c>
       <c r="AN37" s="38"/>
     </row>
-    <row r="38" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:40" ht="14">
       <c r="A38" s="55" t="s">
         <v>91</v>
       </c>
@@ -36610,7 +37618,7 @@
       </c>
       <c r="AN38" s="38"/>
     </row>
-    <row r="39" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:40" ht="14">
       <c r="A39" s="55" t="s">
         <v>93</v>
       </c>
@@ -36730,7 +37738,7 @@
       </c>
       <c r="AN39" s="38"/>
     </row>
-    <row r="40" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:40" ht="14">
       <c r="A40" s="55" t="s">
         <v>95</v>
       </c>
@@ -36850,7 +37858,7 @@
       </c>
       <c r="AN40" s="38"/>
     </row>
-    <row r="41" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:40" ht="14">
       <c r="A41" s="55" t="s">
         <v>97</v>
       </c>
@@ -36970,7 +37978,7 @@
       </c>
       <c r="AN41" s="38"/>
     </row>
-    <row r="42" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:40" ht="14">
       <c r="A42" s="55" t="s">
         <v>99</v>
       </c>
@@ -37090,7 +38098,7 @@
       </c>
       <c r="AN42" s="38"/>
     </row>
-    <row r="43" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:40" ht="14">
       <c r="A43" s="55" t="s">
         <v>101</v>
       </c>
@@ -37210,7 +38218,7 @@
       </c>
       <c r="AN43" s="38"/>
     </row>
-    <row r="44" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:40" ht="14">
       <c r="A44" s="55" t="s">
         <v>103</v>
       </c>
@@ -37330,7 +38338,7 @@
       </c>
       <c r="AN44" s="38"/>
     </row>
-    <row r="45" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:40" ht="14">
       <c r="A45" s="55" t="s">
         <v>105</v>
       </c>
@@ -37450,7 +38458,7 @@
       </c>
       <c r="AN45" s="38"/>
     </row>
-    <row r="46" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:40" ht="14">
       <c r="A46" s="55" t="s">
         <v>107</v>
       </c>
@@ -37570,7 +38578,7 @@
       </c>
       <c r="AN46" s="38"/>
     </row>
-    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:40" ht="15" customHeight="1">
       <c r="A47" s="55" t="s">
         <v>109</v>
       </c>
@@ -37690,7 +38698,7 @@
       </c>
       <c r="AN47" s="38"/>
     </row>
-    <row r="48" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:40" ht="14">
       <c r="A48" s="55" t="s">
         <v>111</v>
       </c>
@@ -37810,7 +38818,7 @@
       </c>
       <c r="AN48" s="38"/>
     </row>
-    <row r="49" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:40" ht="14">
       <c r="A49" s="55" t="s">
         <v>113</v>
       </c>
@@ -37930,7 +38938,7 @@
       </c>
       <c r="AN49" s="38"/>
     </row>
-    <row r="50" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:40" ht="14">
       <c r="A50" s="55" t="s">
         <v>115</v>
       </c>
@@ -38050,7 +39058,7 @@
       </c>
       <c r="AN50" s="38"/>
     </row>
-    <row r="51" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:40" ht="14">
       <c r="A51" s="55" t="s">
         <v>117</v>
       </c>
@@ -38170,7 +39178,7 @@
       </c>
       <c r="AN51" s="38"/>
     </row>
-    <row r="52" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:40" ht="14">
       <c r="A52" s="55" t="s">
         <v>119</v>
       </c>
@@ -38290,7 +39298,7 @@
       </c>
       <c r="AN52" s="38"/>
     </row>
-    <row r="53" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:40" ht="14">
       <c r="A53" s="55" t="s">
         <v>121</v>
       </c>
@@ -38410,7 +39418,7 @@
       </c>
       <c r="AN53" s="38"/>
     </row>
-    <row r="54" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:40" ht="14">
       <c r="A54" s="55" t="s">
         <v>123</v>
       </c>
@@ -38530,7 +39538,7 @@
       </c>
       <c r="AN54" s="38"/>
     </row>
-    <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:40" ht="14">
       <c r="A55" s="55" t="s">
         <v>125</v>
       </c>
@@ -38650,7 +39658,7 @@
       </c>
       <c r="AN55" s="38"/>
     </row>
-    <row r="56" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:40" ht="14">
       <c r="A56" s="55" t="s">
         <v>127</v>
       </c>
@@ -38770,7 +39778,7 @@
       </c>
       <c r="AN56" s="38"/>
     </row>
-    <row r="57" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:40" ht="14">
       <c r="A57" s="55" t="s">
         <v>129</v>
       </c>
@@ -38890,7 +39898,7 @@
       </c>
       <c r="AN57" s="38"/>
     </row>
-    <row r="58" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:40" ht="14">
       <c r="A58" s="55" t="s">
         <v>131</v>
       </c>
@@ -39010,7 +40018,7 @@
       </c>
       <c r="AN58" s="38"/>
     </row>
-    <row r="59" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:40" ht="14">
       <c r="A59" s="55" t="s">
         <v>133</v>
       </c>
@@ -39130,7 +40138,7 @@
       </c>
       <c r="AN59" s="38"/>
     </row>
-    <row r="60" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:40" ht="14">
       <c r="A60" s="55" t="s">
         <v>135</v>
       </c>
@@ -39250,7 +40258,7 @@
       </c>
       <c r="AN60" s="38"/>
     </row>
-    <row r="61" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:40" ht="14">
       <c r="A61" s="55" t="s">
         <v>137</v>
       </c>
@@ -39370,7 +40378,7 @@
       </c>
       <c r="AN61" s="38"/>
     </row>
-    <row r="62" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:40" ht="14">
       <c r="A62" s="55" t="s">
         <v>139</v>
       </c>
@@ -39490,7 +40498,7 @@
       </c>
       <c r="AN62" s="38"/>
     </row>
-    <row r="63" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:40" ht="14.25" customHeight="1">
       <c r="A63" s="55" t="s">
         <v>141</v>
       </c>
@@ -39610,7 +40618,7 @@
       </c>
       <c r="AN63" s="38"/>
     </row>
-    <row r="64" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:40" ht="16.5" customHeight="1">
       <c r="A64" s="55" t="s">
         <v>143</v>
       </c>
@@ -39730,7 +40738,7 @@
       </c>
       <c r="AN64" s="38"/>
     </row>
-    <row r="65" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:40" ht="14">
       <c r="A65" s="55" t="s">
         <v>145</v>
       </c>
@@ -39850,7 +40858,7 @@
       </c>
       <c r="AN65" s="38"/>
     </row>
-    <row r="66" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:40" ht="14">
       <c r="A66" s="55" t="s">
         <v>147</v>
       </c>
@@ -39970,7 +40978,7 @@
       </c>
       <c r="AN66" s="38"/>
     </row>
-    <row r="67" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:40" ht="14">
       <c r="A67" s="55" t="s">
         <v>149</v>
       </c>
@@ -40090,7 +41098,7 @@
       </c>
       <c r="AN67" s="38"/>
     </row>
-    <row r="68" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:40" ht="14">
       <c r="A68" s="55" t="s">
         <v>151</v>
       </c>
@@ -40210,7 +41218,7 @@
       </c>
       <c r="AN68" s="38"/>
     </row>
-    <row r="69" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:40" ht="14">
       <c r="A69" s="55" t="s">
         <v>153</v>
       </c>
@@ -40330,7 +41338,7 @@
       </c>
       <c r="AN69" s="38"/>
     </row>
-    <row r="70" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:40" ht="14">
       <c r="A70" s="55" t="s">
         <v>155</v>
       </c>
@@ -40450,7 +41458,7 @@
       </c>
       <c r="AN70" s="38"/>
     </row>
-    <row r="71" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:40" ht="14">
       <c r="A71" s="55" t="s">
         <v>157</v>
       </c>
@@ -40570,7 +41578,7 @@
       </c>
       <c r="AN71" s="38"/>
     </row>
-    <row r="72" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:40" ht="14">
       <c r="A72" s="55" t="s">
         <v>159</v>
       </c>
@@ -40690,7 +41698,7 @@
       </c>
       <c r="AN72" s="38"/>
     </row>
-    <row r="73" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:40" ht="14">
       <c r="A73" s="55" t="s">
         <v>161</v>
       </c>
@@ -40810,7 +41818,7 @@
       </c>
       <c r="AN73" s="38"/>
     </row>
-    <row r="74" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:40" ht="14">
       <c r="A74" s="55" t="s">
         <v>163</v>
       </c>
@@ -40930,7 +41938,7 @@
       </c>
       <c r="AN74" s="38"/>
     </row>
-    <row r="75" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:40" ht="14">
       <c r="A75" s="55" t="s">
         <v>165</v>
       </c>
@@ -41050,7 +42058,7 @@
       </c>
       <c r="AN75" s="38"/>
     </row>
-    <row r="76" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:40" ht="14">
       <c r="A76" s="55" t="s">
         <v>167</v>
       </c>
@@ -41170,7 +42178,7 @@
       </c>
       <c r="AN76" s="38"/>
     </row>
-    <row r="77" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:40" ht="14">
       <c r="A77" s="55" t="s">
         <v>169</v>
       </c>
@@ -41290,7 +42298,7 @@
       </c>
       <c r="AN77" s="38"/>
     </row>
-    <row r="78" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:40" ht="14">
       <c r="A78" s="55" t="s">
         <v>171</v>
       </c>
@@ -41410,7 +42418,7 @@
       </c>
       <c r="AN78" s="38"/>
     </row>
-    <row r="79" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:40" ht="14">
       <c r="A79" s="55" t="s">
         <v>173</v>
       </c>
@@ -41530,7 +42538,7 @@
       </c>
       <c r="AN79" s="38"/>
     </row>
-    <row r="80" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:40" ht="14">
       <c r="A80" s="55" t="s">
         <v>175</v>
       </c>
@@ -41650,7 +42658,7 @@
       </c>
       <c r="AN80" s="38"/>
     </row>
-    <row r="81" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:40" ht="14">
       <c r="A81" s="55" t="s">
         <v>177</v>
       </c>
@@ -41770,7 +42778,7 @@
       </c>
       <c r="AN81" s="38"/>
     </row>
-    <row r="82" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:40" ht="14">
       <c r="A82" s="55" t="s">
         <v>179</v>
       </c>
@@ -41890,7 +42898,7 @@
       </c>
       <c r="AN82" s="38"/>
     </row>
-    <row r="83" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:40" ht="14">
       <c r="A83" s="55" t="s">
         <v>181</v>
       </c>
@@ -42010,7 +43018,7 @@
       </c>
       <c r="AN83" s="38"/>
     </row>
-    <row r="84" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:40" ht="14">
       <c r="A84" s="55" t="s">
         <v>183</v>
       </c>
@@ -42130,7 +43138,7 @@
       </c>
       <c r="AN84" s="38"/>
     </row>
-    <row r="85" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:40" ht="14">
       <c r="A85" s="55" t="s">
         <v>185</v>
       </c>
@@ -42250,7 +43258,7 @@
       </c>
       <c r="AN85" s="38"/>
     </row>
-    <row r="86" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:40" ht="14">
       <c r="A86" s="55" t="s">
         <v>187</v>
       </c>
@@ -42370,7 +43378,7 @@
       </c>
       <c r="AN86" s="38"/>
     </row>
-    <row r="87" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:40" ht="14">
       <c r="A87" s="55" t="s">
         <v>189</v>
       </c>
@@ -42490,7 +43498,7 @@
       </c>
       <c r="AN87" s="38"/>
     </row>
-    <row r="88" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:40" ht="14">
       <c r="A88" s="55" t="s">
         <v>191</v>
       </c>
@@ -42610,7 +43618,7 @@
       </c>
       <c r="AN88" s="38"/>
     </row>
-    <row r="89" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:40" ht="14">
       <c r="A89" s="55" t="s">
         <v>193</v>
       </c>
@@ -42730,7 +43738,7 @@
       </c>
       <c r="AN89" s="38"/>
     </row>
-    <row r="90" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:40" ht="14">
       <c r="A90" s="58" t="s">
         <v>195</v>
       </c>
@@ -42850,7 +43858,7 @@
       </c>
       <c r="AN90" s="38"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:40">
       <c r="A91" s="75" t="s">
         <v>279</v>
       </c>
@@ -42968,7 +43976,7 @@
       </c>
       <c r="AN91" s="38"/>
     </row>
-    <row r="93" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:40" ht="27" customHeight="1">
       <c r="A93" s="67" t="s">
         <v>280</v>
       </c>
@@ -43004,7 +44012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -43017,7 +44025,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
@@ -43039,26 +44047,26 @@
     <col min="34" max="35" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="32" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B1" s="31"/>
     </row>
-    <row r="2" spans="1:35" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
     </row>
-    <row r="3" spans="1:35" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:35" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="64"/>
       <c r="AI3" s="18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>43160</v>
@@ -43099,7 +44107,7 @@
       <c r="AH4" s="78"/>
       <c r="AI4" s="78"/>
     </row>
-    <row r="5" spans="1:35" s="11" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" s="11" customFormat="1" ht="203.25" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>259</v>
       </c>
@@ -43206,7 +44214,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="11" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="11" customFormat="1" ht="15.5" customHeight="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -43313,7 +44321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="14">
       <c r="A7" s="60" t="s">
         <v>29</v>
       </c>
@@ -43420,7 +44428,7 @@
         <v>29709125</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="14">
       <c r="A8" s="60" t="s">
         <v>31</v>
       </c>
@@ -43527,7 +44535,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="14">
       <c r="A9" s="60" t="s">
         <v>33</v>
       </c>
@@ -43634,7 +44642,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="14">
       <c r="A10" s="60" t="s">
         <v>35</v>
       </c>
@@ -43741,7 +44749,7 @@
         <v>52113436.899999999</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="14">
       <c r="A11" s="60" t="s">
         <v>37</v>
       </c>
@@ -43848,7 +44856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="14">
       <c r="A12" s="60" t="s">
         <v>39</v>
       </c>
@@ -43955,7 +44963,7 @@
         <v>5638793.5</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="14">
       <c r="A13" s="60" t="s">
         <v>41</v>
       </c>
@@ -44062,7 +45070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="14">
       <c r="A14" s="60" t="s">
         <v>43</v>
       </c>
@@ -44169,7 +45177,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="14">
       <c r="A15" s="60" t="s">
         <v>45</v>
       </c>
@@ -44276,7 +45284,7 @@
         <v>128176929</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="14">
       <c r="A16" s="60" t="s">
         <v>47</v>
       </c>
@@ -44383,7 +45391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="14">
       <c r="A17" s="60" t="s">
         <v>49</v>
       </c>
@@ -44490,7 +45498,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="14">
       <c r="A18" s="60" t="s">
         <v>51</v>
       </c>
@@ -44597,7 +45605,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="14">
       <c r="A19" s="60" t="s">
         <v>53</v>
       </c>
@@ -44704,7 +45712,7 @@
         <v>330714</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="14">
       <c r="A20" s="60" t="s">
         <v>55</v>
       </c>
@@ -44811,7 +45819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="14">
       <c r="A21" s="60" t="s">
         <v>57</v>
       </c>
@@ -44918,7 +45926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="14">
       <c r="A22" s="60" t="s">
         <v>59</v>
       </c>
@@ -45025,7 +46033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="14">
       <c r="A23" s="60" t="s">
         <v>61</v>
       </c>
@@ -45132,7 +46140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="14">
       <c r="A24" s="60" t="s">
         <v>63</v>
       </c>
@@ -45239,7 +46247,7 @@
         <v>60633</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="14">
       <c r="A25" s="60" t="s">
         <v>65</v>
       </c>
@@ -45346,7 +46354,7 @@
         <v>220326</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="14">
       <c r="A26" s="60" t="s">
         <v>67</v>
       </c>
@@ -45453,7 +46461,7 @@
         <v>636690.4</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="14">
       <c r="A27" s="60" t="s">
         <v>69</v>
       </c>
@@ -45560,7 +46568,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="14">
       <c r="A28" s="60" t="s">
         <v>71</v>
       </c>
@@ -45667,7 +46675,7 @@
         <v>3905804.5</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="14">
       <c r="A29" s="60" t="s">
         <v>73</v>
       </c>
@@ -45774,7 +46782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="14">
       <c r="A30" s="60" t="s">
         <v>75</v>
       </c>
@@ -45881,7 +46889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="14">
       <c r="A31" s="60" t="s">
         <v>77</v>
       </c>
@@ -45988,7 +46996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="14">
       <c r="A32" s="60" t="s">
         <v>79</v>
       </c>
@@ -46095,7 +47103,7 @@
         <v>99045</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="14">
       <c r="A33" s="60" t="s">
         <v>81</v>
       </c>
@@ -46202,7 +47210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="14">
       <c r="A34" s="60" t="s">
         <v>83</v>
       </c>
@@ -46309,7 +47317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="14">
       <c r="A35" s="60" t="s">
         <v>85</v>
       </c>
@@ -46416,7 +47424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="14">
       <c r="A36" s="60" t="s">
         <v>87</v>
       </c>
@@ -46523,7 +47531,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="14">
       <c r="A37" s="60" t="s">
         <v>89</v>
       </c>
@@ -46630,7 +47638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="14">
       <c r="A38" s="60" t="s">
         <v>91</v>
       </c>
@@ -46737,7 +47745,7 @@
         <v>930000</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="14">
       <c r="A39" s="60" t="s">
         <v>93</v>
       </c>
@@ -46844,7 +47852,7 @@
         <v>935032</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="14">
       <c r="A40" s="60" t="s">
         <v>95</v>
       </c>
@@ -46951,7 +47959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="14">
       <c r="A41" s="60" t="s">
         <v>97</v>
       </c>
@@ -47058,7 +48066,7 @@
         <v>126477</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="14">
       <c r="A42" s="60" t="s">
         <v>99</v>
       </c>
@@ -47165,7 +48173,7 @@
         <v>111586</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="14">
       <c r="A43" s="60" t="s">
         <v>101</v>
       </c>
@@ -47272,7 +48280,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="14">
       <c r="A44" s="60" t="s">
         <v>103</v>
       </c>
@@ -47379,7 +48387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="14">
       <c r="A45" s="60" t="s">
         <v>105</v>
       </c>
@@ -47486,7 +48494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="14">
       <c r="A46" s="60" t="s">
         <v>107</v>
       </c>
@@ -47593,7 +48601,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="14">
       <c r="A47" s="60" t="s">
         <v>109</v>
       </c>
@@ -47700,7 +48708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="14">
       <c r="A48" s="60" t="s">
         <v>111</v>
       </c>
@@ -47807,7 +48815,7 @@
         <v>205725.2</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35" ht="14">
       <c r="A49" s="60" t="s">
         <v>113</v>
       </c>
@@ -47914,7 +48922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35" ht="14">
       <c r="A50" s="60" t="s">
         <v>115</v>
       </c>
@@ -48021,7 +49029,7 @@
         <v>950092.3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35" ht="14">
       <c r="A51" s="60" t="s">
         <v>117</v>
       </c>
@@ -48128,7 +49136,7 @@
         <v>9114795.6999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35" ht="14">
       <c r="A52" s="60" t="s">
         <v>119</v>
       </c>
@@ -48235,7 +49243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35" ht="14">
       <c r="A53" s="60" t="s">
         <v>121</v>
       </c>
@@ -48342,7 +49350,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35" ht="14">
       <c r="A54" s="60" t="s">
         <v>123</v>
       </c>
@@ -48449,7 +49457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:35" ht="14">
       <c r="A55" s="60" t="s">
         <v>125</v>
       </c>
@@ -48556,7 +49564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:35" ht="14">
       <c r="A56" s="60" t="s">
         <v>127</v>
       </c>
@@ -48663,7 +49671,7 @@
         <v>651772</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35" ht="14">
       <c r="A57" s="60" t="s">
         <v>129</v>
       </c>
@@ -48770,7 +49778,7 @@
         <v>3286883</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35" ht="14">
       <c r="A58" s="60" t="s">
         <v>131</v>
       </c>
@@ -48877,7 +49885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35" ht="14">
       <c r="A59" s="60" t="s">
         <v>133</v>
       </c>
@@ -48984,7 +49992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:35" ht="14">
       <c r="A60" s="60" t="s">
         <v>135</v>
       </c>
@@ -49091,7 +50099,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:35" ht="14">
       <c r="A61" s="60" t="s">
         <v>137</v>
       </c>
@@ -49198,7 +50206,7 @@
         <v>1000.4</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35" ht="14">
       <c r="A62" s="60" t="s">
         <v>139</v>
       </c>
@@ -49305,7 +50313,7 @@
         <v>124420</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:35" ht="14">
       <c r="A63" s="60" t="s">
         <v>141</v>
       </c>
@@ -49412,7 +50420,7 @@
         <v>2171909</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:35" ht="14">
       <c r="A64" s="60" t="s">
         <v>143</v>
       </c>
@@ -49519,7 +50527,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:35" ht="14">
       <c r="A65" s="60" t="s">
         <v>145</v>
       </c>
@@ -49626,7 +50634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:35" ht="14">
       <c r="A66" s="60" t="s">
         <v>147</v>
       </c>
@@ -49733,7 +50741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:35" ht="14">
       <c r="A67" s="60" t="s">
         <v>149</v>
       </c>
@@ -49840,7 +50848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:35" ht="14">
       <c r="A68" s="60" t="s">
         <v>151</v>
       </c>
@@ -49947,7 +50955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:35" ht="14">
       <c r="A69" s="60" t="s">
         <v>153</v>
       </c>
@@ -50054,7 +51062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:35" ht="14">
       <c r="A70" s="60" t="s">
         <v>155</v>
       </c>
@@ -50161,7 +51169,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:35" ht="14">
       <c r="A71" s="60" t="s">
         <v>157</v>
       </c>
@@ -50268,7 +51276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:35" ht="14">
       <c r="A72" s="60" t="s">
         <v>159</v>
       </c>
@@ -50375,7 +51383,7 @@
         <v>174912</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:35" ht="14">
       <c r="A73" s="60" t="s">
         <v>161</v>
       </c>
@@ -50482,7 +51490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:35" ht="14">
       <c r="A74" s="60" t="s">
         <v>163</v>
       </c>
@@ -50589,7 +51597,7 @@
         <v>386000</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:35" ht="14">
       <c r="A75" s="60" t="s">
         <v>165</v>
       </c>
@@ -50696,7 +51704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:35" ht="14">
       <c r="A76" s="60" t="s">
         <v>167</v>
       </c>
@@ -50803,7 +51811,7 @@
         <v>320509</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:35" ht="14">
       <c r="A77" s="60" t="s">
         <v>169</v>
       </c>
@@ -50910,7 +51918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:35" ht="14">
       <c r="A78" s="60" t="s">
         <v>171</v>
       </c>
@@ -51017,7 +52025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:35" ht="14">
       <c r="A79" s="60" t="s">
         <v>173</v>
       </c>
@@ -51124,7 +52132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:35" ht="14">
       <c r="A80" s="60" t="s">
         <v>175</v>
       </c>
@@ -51231,7 +52239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:35" ht="14">
       <c r="A81" s="60" t="s">
         <v>177</v>
       </c>
@@ -51338,7 +52346,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:35" ht="14">
       <c r="A82" s="60" t="s">
         <v>179</v>
       </c>
@@ -51445,7 +52453,7 @@
         <v>75355</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:35" ht="14">
       <c r="A83" s="60" t="s">
         <v>181</v>
       </c>
@@ -51552,7 +52560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:35" ht="14">
       <c r="A84" s="60" t="s">
         <v>183</v>
       </c>
@@ -51659,7 +52667,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:35" ht="14">
       <c r="A85" s="60" t="s">
         <v>185</v>
       </c>
@@ -51766,7 +52774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:35" ht="14">
       <c r="A86" s="60" t="s">
         <v>187</v>
       </c>
@@ -51873,7 +52881,7 @@
         <v>586752.5</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:35" ht="14">
       <c r="A87" s="60" t="s">
         <v>189</v>
       </c>
@@ -51980,7 +52988,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="88" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:35" ht="14">
       <c r="A88" s="60" t="s">
         <v>191</v>
       </c>
@@ -52087,7 +53095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:35" ht="14">
       <c r="A89" s="60" t="s">
         <v>193</v>
       </c>
@@ -52194,7 +53202,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:35" ht="14">
       <c r="A90" s="60" t="s">
         <v>195</v>
       </c>
@@ -52301,7 +53309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:35">
       <c r="A91" s="77" t="s">
         <v>279</v>
       </c>
@@ -52406,7 +53414,7 @@
         <v>242379866.80000001</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:35" ht="26.25" customHeight="1">
       <c r="A93" s="67" t="s">
         <v>280</v>
       </c>
@@ -52442,7 +53450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -52455,7 +53463,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
@@ -52463,28 +53471,28 @@
     <col min="19" max="19" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B1" s="4"/>
       <c r="S1" s="17"/>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="64"/>
       <c r="S3" s="18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>43160</v>
@@ -52509,7 +53517,7 @@
       <c r="R4" s="72"/>
       <c r="S4" s="73"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="178.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>259</v>
       </c>
@@ -52568,7 +53576,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="16.25" customHeight="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -52627,7 +53635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7" s="56" t="s">
         <v>29</v>
       </c>
@@ -52686,7 +53694,7 @@
         <v>25362807.25262</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
@@ -52745,7 +53753,7 @@
         <v>4401836.0694700005</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9" s="56" t="s">
         <v>33</v>
       </c>
@@ -52804,7 +53812,7 @@
         <v>10849772.34141</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="A10" s="56" t="s">
         <v>35</v>
       </c>
@@ -52863,7 +53871,7 @@
         <v>91323357.966030002</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="A11" s="56" t="s">
         <v>37</v>
       </c>
@@ -52922,7 +53930,7 @@
         <v>396959.51182999997</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="A12" s="56" t="s">
         <v>39</v>
       </c>
@@ -52981,7 +53989,7 @@
         <v>38347761.57863</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19">
       <c r="A13" s="56" t="s">
         <v>41</v>
       </c>
@@ -53040,7 +54048,7 @@
         <v>3524915.4503199998</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="A14" s="56" t="s">
         <v>43</v>
       </c>
@@ -53099,7 +54107,7 @@
         <v>74931.925910000005</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19">
       <c r="A15" s="56" t="s">
         <v>45</v>
       </c>
@@ -53158,7 +54166,7 @@
         <v>137452846.91661999</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19">
       <c r="A16" s="56" t="s">
         <v>47</v>
       </c>
@@ -53217,7 +54225,7 @@
         <v>253234.13089</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19">
       <c r="A17" s="56" t="s">
         <v>49</v>
       </c>
@@ -53276,7 +54284,7 @@
         <v>6845890.1569299996</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19">
       <c r="A18" s="56" t="s">
         <v>51</v>
       </c>
@@ -53335,7 +54343,7 @@
         <v>57466.755519999999</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19">
       <c r="A19" s="56" t="s">
         <v>53</v>
       </c>
@@ -53394,7 +54402,7 @@
         <v>6861046.7641000003</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19">
       <c r="A20" s="56" t="s">
         <v>55</v>
       </c>
@@ -53453,7 +54461,7 @@
         <v>892035.13049999997</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19">
       <c r="A21" s="56" t="s">
         <v>57</v>
       </c>
@@ -53512,7 +54520,7 @@
         <v>115481.72379</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19">
       <c r="A22" s="56" t="s">
         <v>59</v>
       </c>
@@ -53571,7 +54579,7 @@
         <v>3377886.45842</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19">
       <c r="A23" s="56" t="s">
         <v>61</v>
       </c>
@@ -53630,7 +54638,7 @@
         <v>622246.81660000002</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19">
       <c r="A24" s="56" t="s">
         <v>63</v>
       </c>
@@ -53689,7 +54697,7 @@
         <v>1714220.7742399999</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19">
       <c r="A25" s="56" t="s">
         <v>65</v>
       </c>
@@ -53748,7 +54756,7 @@
         <v>1794715.2405900001</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19">
       <c r="A26" s="56" t="s">
         <v>67</v>
       </c>
@@ -53807,7 +54815,7 @@
         <v>8600429.8682799991</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="A27" s="56" t="s">
         <v>69</v>
       </c>
@@ -53866,7 +54874,7 @@
         <v>1111277.46432</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19">
       <c r="A28" s="56" t="s">
         <v>71</v>
       </c>
@@ -53925,7 +54933,7 @@
         <v>23496928.281810001</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19">
       <c r="A29" s="56" t="s">
         <v>73</v>
       </c>
@@ -53984,7 +54992,7 @@
         <v>359935.92622000002</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19">
       <c r="A30" s="56" t="s">
         <v>75</v>
       </c>
@@ -54043,7 +55051,7 @@
         <v>3250377.3255500002</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19">
       <c r="A31" s="56" t="s">
         <v>77</v>
       </c>
@@ -54102,7 +55110,7 @@
         <v>139086.60490000001</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19">
       <c r="A32" s="56" t="s">
         <v>79</v>
       </c>
@@ -54161,7 +55169,7 @@
         <v>109603.13602999999</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19">
       <c r="A33" s="56" t="s">
         <v>81</v>
       </c>
@@ -54220,7 +55228,7 @@
         <v>541476.46192000003</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19">
       <c r="A34" s="56" t="s">
         <v>83</v>
       </c>
@@ -54279,7 +55287,7 @@
         <v>20216789.59361</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19">
       <c r="A35" s="56" t="s">
         <v>85</v>
       </c>
@@ -54338,7 +55346,7 @@
         <v>2611953.1569500002</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19">
       <c r="A36" s="56" t="s">
         <v>87</v>
       </c>
@@ -54397,7 +55405,7 @@
         <v>537133.46360999998</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19">
       <c r="A37" s="56" t="s">
         <v>89</v>
       </c>
@@ -54456,7 +55464,7 @@
         <v>418024.22719000001</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19">
       <c r="A38" s="56" t="s">
         <v>91</v>
       </c>
@@ -54515,7 +55523,7 @@
         <v>1794952.6068299999</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19">
       <c r="A39" s="56" t="s">
         <v>93</v>
       </c>
@@ -54574,7 +55582,7 @@
         <v>16462240.05902</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19">
       <c r="A40" s="56" t="s">
         <v>95</v>
       </c>
@@ -54633,7 +55641,7 @@
         <v>1476455.20319</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19">
       <c r="A41" s="56" t="s">
         <v>97</v>
       </c>
@@ -54692,7 +55700,7 @@
         <v>374184.40826</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19">
       <c r="A42" s="56" t="s">
         <v>99</v>
       </c>
@@ -54751,7 +55759,7 @@
         <v>577793.33693999995</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19">
       <c r="A43" s="56" t="s">
         <v>101</v>
       </c>
@@ -54810,7 +55818,7 @@
         <v>408446.92716000002</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19">
       <c r="A44" s="56" t="s">
         <v>103</v>
       </c>
@@ -54869,7 +55877,7 @@
         <v>461512.39986</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19">
       <c r="A45" s="56" t="s">
         <v>105</v>
       </c>
@@ -54928,7 +55936,7 @@
         <v>421957.29862000002</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19">
       <c r="A46" s="56" t="s">
         <v>107</v>
       </c>
@@ -54987,7 +55995,7 @@
         <v>2122510.6362399999</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19">
       <c r="A47" s="56" t="s">
         <v>109</v>
       </c>
@@ -55046,7 +56054,7 @@
         <v>231327.64587000001</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19">
       <c r="A48" s="56" t="s">
         <v>111</v>
       </c>
@@ -55105,7 +56113,7 @@
         <v>901756.27567999996</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19">
       <c r="A49" s="56" t="s">
         <v>113</v>
       </c>
@@ -55164,7 +56172,7 @@
         <v>4013574.05003</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19">
       <c r="A50" s="56" t="s">
         <v>115</v>
       </c>
@@ -55223,7 +56231,7 @@
         <v>20772994.57528</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19">
       <c r="A51" s="56" t="s">
         <v>117</v>
       </c>
@@ -55282,7 +56290,7 @@
         <v>37551813.6875</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19">
       <c r="A52" s="56" t="s">
         <v>119</v>
       </c>
@@ -55341,7 +56349,7 @@
         <v>526251.32200000004</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19">
       <c r="A53" s="56" t="s">
         <v>121</v>
       </c>
@@ -55400,7 +56408,7 @@
         <v>1340236.8925000001</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19">
       <c r="A54" s="56" t="s">
         <v>123</v>
       </c>
@@ -55459,7 +56467,7 @@
         <v>665098.06145000004</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19">
       <c r="A55" s="56" t="s">
         <v>125</v>
       </c>
@@ -55518,7 +56526,7 @@
         <v>4512344.8421099996</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19">
       <c r="A56" s="56" t="s">
         <v>127</v>
       </c>
@@ -55577,7 +56585,7 @@
         <v>15869689.166580001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19">
       <c r="A57" s="56" t="s">
         <v>129</v>
       </c>
@@ -55636,7 +56644,7 @@
         <v>11873296.61792</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19">
       <c r="A58" s="56" t="s">
         <v>131</v>
       </c>
@@ -55695,7 +56703,7 @@
         <v>9136680.4575200006</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19">
       <c r="A59" s="56" t="s">
         <v>133</v>
       </c>
@@ -55754,7 +56762,7 @@
         <v>4138220.3036000002</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19">
       <c r="A60" s="56" t="s">
         <v>135</v>
       </c>
@@ -55813,7 +56821,7 @@
         <v>4022247.3488599998</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19">
       <c r="A61" s="56" t="s">
         <v>137</v>
       </c>
@@ -55872,7 +56880,7 @@
         <v>71445.53847</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19">
       <c r="A62" s="56" t="s">
         <v>139</v>
       </c>
@@ -55931,7 +56939,7 @@
         <v>30838.387589999998</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19">
       <c r="A63" s="56" t="s">
         <v>141</v>
       </c>
@@ -55990,7 +56998,7 @@
         <v>16045280.85103</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19">
       <c r="A64" s="56" t="s">
         <v>143</v>
       </c>
@@ -56049,7 +57057,7 @@
         <v>990307.1226</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19">
       <c r="A65" s="56" t="s">
         <v>145</v>
       </c>
@@ -56108,7 +57116,7 @@
         <v>326973.53824000002</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19">
       <c r="A66" s="56" t="s">
         <v>147</v>
       </c>
@@ -56167,7 +57175,7 @@
         <v>1465277.9865900001</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19">
       <c r="A67" s="56" t="s">
         <v>149</v>
       </c>
@@ -56226,7 +57234,7 @@
         <v>298213.72291999997</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19">
       <c r="A68" s="56" t="s">
         <v>151</v>
       </c>
@@ -56285,7 +57293,7 @@
         <v>219574.08046999999</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19">
       <c r="A69" s="56" t="s">
         <v>153</v>
       </c>
@@ -56344,7 +57352,7 @@
         <v>573940.93166999996</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19">
       <c r="A70" s="56" t="s">
         <v>155</v>
       </c>
@@ -56403,7 +57411,7 @@
         <v>677617.64188999997</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19">
       <c r="A71" s="56" t="s">
         <v>157</v>
       </c>
@@ -56462,7 +57470,7 @@
         <v>776660.51237999997</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19">
       <c r="A72" s="56" t="s">
         <v>159</v>
       </c>
@@ -56521,7 +57529,7 @@
         <v>1622118.5605599999</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19">
       <c r="A73" s="56" t="s">
         <v>161</v>
       </c>
@@ -56580,7 +57588,7 @@
         <v>118861.16684999999</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19">
       <c r="A74" s="56" t="s">
         <v>163</v>
       </c>
@@ -56639,7 +57647,7 @@
         <v>3634781.24229</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19">
       <c r="A75" s="56" t="s">
         <v>165</v>
       </c>
@@ -56698,7 +57706,7 @@
         <v>329766.18578</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19">
       <c r="A76" s="56" t="s">
         <v>167</v>
       </c>
@@ -56757,7 +57765,7 @@
         <v>262639.64003000001</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19">
       <c r="A77" s="56" t="s">
         <v>169</v>
       </c>
@@ -56816,7 +57824,7 @@
         <v>74033.377840000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19">
       <c r="A78" s="56" t="s">
         <v>171</v>
       </c>
@@ -56875,7 +57883,7 @@
         <v>193419.87901</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19">
       <c r="A79" s="56" t="s">
         <v>173</v>
       </c>
@@ -56934,7 +57942,7 @@
         <v>1103975.62319</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19">
       <c r="A80" s="56" t="s">
         <v>175</v>
       </c>
@@ -56993,7 +58001,7 @@
         <v>32792.15236</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19">
       <c r="A81" s="56" t="s">
         <v>177</v>
       </c>
@@ -57052,7 +58060,7 @@
         <v>704194.49115000002</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19">
       <c r="A82" s="56" t="s">
         <v>179</v>
       </c>
@@ -57111,7 +58119,7 @@
         <v>346804.39769999997</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19">
       <c r="A83" s="56" t="s">
         <v>181</v>
       </c>
@@ -57170,7 +58178,7 @@
         <v>24813.94526</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="56" t="s">
         <v>183</v>
       </c>
@@ -57229,7 +58237,7 @@
         <v>4949.96378</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="56" t="s">
         <v>185</v>
       </c>
@@ -57288,7 +58296,7 @@
         <v>118700.81862000001</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="56" t="s">
         <v>187</v>
       </c>
@@ -57347,7 +58355,7 @@
         <v>1090173.1671</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="56" t="s">
         <v>189</v>
       </c>
@@ -57406,7 +58414,7 @@
         <v>542649.66815000004</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="56" t="s">
         <v>191</v>
       </c>
@@ -57465,7 +58473,7 @@
         <v>16127.18339</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="56" t="s">
         <v>193</v>
       </c>
@@ -57524,7 +58532,7 @@
         <v>736635.30296999996</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="59" t="s">
         <v>195</v>
       </c>
@@ -57583,7 +58591,7 @@
         <v>267012.63019</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="75" t="s">
         <v>279</v>
       </c>
@@ -57640,7 +58648,7 @@
         <v>568018592.30789995</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="30.75" customHeight="1">
       <c r="A93" s="67" t="s">
         <v>280</v>
       </c>
@@ -57676,7 +58684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -57685,9 +58693,9 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="0" hidden="1" customHeight="1">
       <c r="A1" t="s">
         <v>197</v>
       </c>
@@ -57695,7 +58703,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="0" hidden="1" customHeight="1">
       <c r="A2" t="s">
         <v>199</v>
       </c>
